--- a/Grid_5x5/Solutions/Solution_NDP_S064/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S064/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2688,7 +2688,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.37601154585778074</v>
+        <v>0.37601154585778068</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2709,7 +2709,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>1.6673750000000007</v>
+        <v>1.6673749999999998</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -2729,7 +2729,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>2.4541428571428572</v>
+        <v>2.4541428571428576</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -7552,7 +7552,7 @@
         <v>123.08800000000002</v>
       </c>
       <c r="M7" s="72">
-        <v>37.019999999999996</v>
+        <v>37.020000000000003</v>
       </c>
       <c r="N7" s="72">
         <v>210.11</v>
@@ -7593,13 +7593,13 @@
         <v>196.67000000000002</v>
       </c>
       <c r="L8" s="72">
-        <v>112.09199999999998</v>
+        <v>112.09199999999993</v>
       </c>
       <c r="M8" s="72">
         <v>98.018000000000001</v>
       </c>
       <c r="N8" s="72">
-        <v>308.762</v>
+        <v>308.76199999999994</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -7684,7 +7684,7 @@
         <v>66.222999999999999</v>
       </c>
       <c r="M10" s="72">
-        <v>87.055999999999997</v>
+        <v>87.056000000000012</v>
       </c>
       <c r="N10" s="72">
         <v>104.244</v>
@@ -7754,7 +7754,7 @@
         <v>70</v>
       </c>
       <c r="K12" s="72">
-        <v>103.40799999999999</v>
+        <v>103.408</v>
       </c>
       <c r="L12" s="72">
         <v>0</v>
@@ -7763,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="72">
-        <v>103.40799999999999</v>
+        <v>103.408</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -9310,10 +9310,10 @@
         <v>70</v>
       </c>
       <c r="K49" s="72">
-        <v>103.47299999999998</v>
+        <v>103.47300000000001</v>
       </c>
       <c r="L49" s="72">
-        <v>41.931000000000012</v>
+        <v>41.930999999999983</v>
       </c>
       <c r="M49" s="72">
         <v>61.966999999999999</v>
@@ -9354,10 +9354,10 @@
         <v>70</v>
       </c>
       <c r="K50" s="72">
-        <v>45.058</v>
+        <v>45.058000000000007</v>
       </c>
       <c r="L50" s="72">
-        <v>63.637999999999998</v>
+        <v>63.637999999999991</v>
       </c>
       <c r="M50" s="72">
         <v>81.765999999999991</v>
@@ -9398,10 +9398,10 @@
         <v>70</v>
       </c>
       <c r="K51" s="72">
-        <v>50.369000000000014</v>
+        <v>50.369</v>
       </c>
       <c r="L51" s="72">
-        <v>44.961999999999989</v>
+        <v>44.962000000000003</v>
       </c>
       <c r="M51" s="72">
         <v>63.734000000000002</v>
@@ -9445,13 +9445,13 @@
         <v>14.843</v>
       </c>
       <c r="L52" s="72">
-        <v>55.381</v>
+        <v>55.381000000000014</v>
       </c>
       <c r="M52" s="72">
         <v>39.950000000000003</v>
       </c>
       <c r="N52" s="72">
-        <v>70.224000000000004</v>
+        <v>70.224000000000018</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="72">
-        <v>70.224000000000004</v>
+        <v>70.224000000000018</v>
       </c>
       <c r="N53" s="72">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>7.870000000000001</v>
       </c>
       <c r="L85" s="72">
-        <v>45.507000000000005</v>
+        <v>45.506999999999991</v>
       </c>
       <c r="M85" s="72">
         <v>15.224</v>
       </c>
       <c r="N85" s="72">
-        <v>53.377000000000002</v>
+        <v>53.376999999999995</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -10866,13 +10866,13 @@
         <v>70</v>
       </c>
       <c r="K86" s="72">
-        <v>28.725000000000001</v>
+        <v>28.724999999999998</v>
       </c>
       <c r="L86" s="72">
-        <v>25.756999999999998</v>
+        <v>25.757000000000001</v>
       </c>
       <c r="M86" s="72">
-        <v>27.619999999999997</v>
+        <v>27.620000000000005</v>
       </c>
       <c r="N86" s="72">
         <v>54.481999999999999</v>
@@ -12082,13 +12082,13 @@
         <v>70</v>
       </c>
       <c r="K115" s="72">
-        <v>31.249000000000002</v>
+        <v>31.248999999999999</v>
       </c>
       <c r="L115" s="72">
-        <v>12.999000000000002</v>
+        <v>12.999000000000006</v>
       </c>
       <c r="M115" s="72">
-        <v>12.094000000000001</v>
+        <v>12.093999999999999</v>
       </c>
       <c r="N115" s="72">
         <v>44.248000000000005</v>
@@ -12126,7 +12126,7 @@
         <v>70</v>
       </c>
       <c r="K116" s="72">
-        <v>18.407</v>
+        <v>18.406999999999996</v>
       </c>
       <c r="L116" s="72">
         <v>33.637</v>
@@ -12173,13 +12173,13 @@
         <v>125.53700000000001</v>
       </c>
       <c r="L117" s="72">
-        <v>42.115000000000009</v>
+        <v>42.114999999999981</v>
       </c>
       <c r="M117" s="72">
         <v>9.9289999999999985</v>
       </c>
       <c r="N117" s="72">
-        <v>167.65200000000002</v>
+        <v>167.65199999999999</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -12290,7 +12290,7 @@
         <v>70</v>
       </c>
       <c r="K120" s="72">
-        <v>20.655999999999999</v>
+        <v>20.656000000000002</v>
       </c>
       <c r="L120" s="72">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="72">
-        <v>20.655999999999999</v>
+        <v>20.656000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -13594,10 +13594,10 @@
         <v>70</v>
       </c>
       <c r="K151" s="72">
-        <v>153.70800000000003</v>
+        <v>153.70799999999997</v>
       </c>
       <c r="L151" s="72">
-        <v>155.608</v>
+        <v>155.60800000000006</v>
       </c>
       <c r="M151" s="72">
         <v>20.21</v>
@@ -13638,16 +13638,16 @@
         <v>70</v>
       </c>
       <c r="K152" s="72">
-        <v>21.529000000000003</v>
+        <v>21.529</v>
       </c>
       <c r="L152" s="72">
-        <v>264.029</v>
+        <v>264.02900000000005</v>
       </c>
       <c r="M152" s="72">
-        <v>45.286999999999999</v>
+        <v>45.286999999999992</v>
       </c>
       <c r="N152" s="72">
-        <v>285.55799999999999</v>
+        <v>285.55800000000005</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -13729,13 +13729,13 @@
         <v>110.81299999999999</v>
       </c>
       <c r="L154" s="72">
-        <v>52.079000000000036</v>
+        <v>52.079000000000008</v>
       </c>
       <c r="M154" s="72">
         <v>49.213000000000001</v>
       </c>
       <c r="N154" s="72">
-        <v>162.89200000000002</v>
+        <v>162.892</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -13773,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="M155" s="72">
-        <v>162.89200000000002</v>
+        <v>162.892</v>
       </c>
       <c r="N155" s="72">
         <v>0</v>
@@ -15358,10 +15358,10 @@
         <v>70</v>
       </c>
       <c r="K193" s="72">
-        <v>96.53</v>
+        <v>96.530000000000015</v>
       </c>
       <c r="L193" s="72">
-        <v>63.474999999999994</v>
+        <v>63.47499999999998</v>
       </c>
       <c r="M193" s="72">
         <v>47.266000000000005</v>
@@ -15402,16 +15402,16 @@
         <v>70</v>
       </c>
       <c r="K194" s="72">
-        <v>74.966000000000008</v>
+        <v>74.965999999999994</v>
       </c>
       <c r="L194" s="72">
-        <v>54.560999999999979</v>
+        <v>54.561000000000021</v>
       </c>
       <c r="M194" s="72">
-        <v>105.444</v>
+        <v>105.44399999999999</v>
       </c>
       <c r="N194" s="72">
-        <v>129.52699999999999</v>
+        <v>129.52700000000002</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -15446,10 +15446,10 @@
         <v>70</v>
       </c>
       <c r="K195" s="72">
-        <v>12.121000000000002</v>
+        <v>12.120999999999999</v>
       </c>
       <c r="L195" s="72">
-        <v>106.46799999999999</v>
+        <v>106.468</v>
       </c>
       <c r="M195" s="72">
         <v>23.059000000000001</v>
@@ -15490,16 +15490,16 @@
         <v>70</v>
       </c>
       <c r="K196" s="72">
-        <v>11.678999999999998</v>
+        <v>11.679</v>
       </c>
       <c r="L196" s="72">
-        <v>63.263000000000005</v>
+        <v>63.262999999999991</v>
       </c>
       <c r="M196" s="72">
-        <v>55.326000000000001</v>
+        <v>55.325999999999993</v>
       </c>
       <c r="N196" s="72">
-        <v>74.942000000000007</v>
+        <v>74.941999999999993</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -15537,7 +15537,7 @@
         <v>0</v>
       </c>
       <c r="M197" s="72">
-        <v>74.942000000000007</v>
+        <v>74.941999999999993</v>
       </c>
       <c r="N197" s="72">
         <v>0</v>
@@ -16873,13 +16873,13 @@
         <v>46.941000000000003</v>
       </c>
       <c r="L229" s="72">
-        <v>137.23299999999998</v>
+        <v>137.233</v>
       </c>
       <c r="M229" s="72">
         <v>10.977</v>
       </c>
       <c r="N229" s="72">
-        <v>184.17399999999998</v>
+        <v>184.17400000000001</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
@@ -16917,13 +16917,13 @@
         <v>42.738999999999997</v>
       </c>
       <c r="L230" s="72">
-        <v>168.87799999999999</v>
+        <v>168.87800000000001</v>
       </c>
       <c r="M230" s="72">
-        <v>15.295999999999999</v>
+        <v>15.296000000000001</v>
       </c>
       <c r="N230" s="72">
-        <v>211.61699999999999</v>
+        <v>211.61700000000002</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
@@ -16958,10 +16958,10 @@
         <v>70</v>
       </c>
       <c r="K231" s="72">
-        <v>49.820000000000007</v>
+        <v>49.819999999999993</v>
       </c>
       <c r="L231" s="72">
-        <v>102.16799999999999</v>
+        <v>102.16800000000001</v>
       </c>
       <c r="M231" s="72">
         <v>109.44900000000001</v>
@@ -17005,13 +17005,13 @@
         <v>77.135999999999996</v>
       </c>
       <c r="L232" s="72">
-        <v>121.05799999999996</v>
+        <v>121.05799999999999</v>
       </c>
       <c r="M232" s="72">
         <v>30.93</v>
       </c>
       <c r="N232" s="72">
-        <v>198.19399999999996</v>
+        <v>198.19399999999999</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
@@ -17049,7 +17049,7 @@
         <v>0</v>
       </c>
       <c r="M233" s="72">
-        <v>198.19399999999996</v>
+        <v>198.19399999999999</v>
       </c>
       <c r="N233" s="72">
         <v>0</v>
@@ -18268,7 +18268,7 @@
         <v>17.787999999999997</v>
       </c>
       <c r="M262" s="72">
-        <v>15.639000000000001</v>
+        <v>15.639000000000003</v>
       </c>
       <c r="N262" s="72">
         <v>20.378999999999998</v>
@@ -18476,10 +18476,10 @@
         <v>18.277000000000001</v>
       </c>
       <c r="M267" s="72">
-        <v>36.393999999999998</v>
+        <v>36.393999999999991</v>
       </c>
       <c r="N267" s="72">
-        <v>25.335999999999999</v>
+        <v>25.336000000000002</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
@@ -19985,13 +19985,13 @@
         <v>30.704999999999998</v>
       </c>
       <c r="L303" s="72">
-        <v>26.342000000000006</v>
+        <v>26.341999999999999</v>
       </c>
       <c r="M303" s="72">
         <v>32.313000000000002</v>
       </c>
       <c r="N303" s="72">
-        <v>57.047000000000004</v>
+        <v>57.046999999999997</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
@@ -21409,13 +21409,13 @@
         <v>53.799000000000007</v>
       </c>
       <c r="L337" s="72">
-        <v>1.7540000000000049</v>
+        <v>1.7539999999999978</v>
       </c>
       <c r="M337" s="72">
         <v>47.024000000000001</v>
       </c>
       <c r="N337" s="72">
-        <v>55.553000000000011</v>
+        <v>55.553000000000004</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.25">
@@ -21500,7 +21500,7 @@
         <v>63.063000000000009</v>
       </c>
       <c r="M339" s="72">
-        <v>125.34900000000002</v>
+        <v>125.34899999999999</v>
       </c>
       <c r="N339" s="72">
         <v>94.63300000000001</v>
@@ -21538,16 +21538,16 @@
         <v>70</v>
       </c>
       <c r="K340" s="72">
-        <v>19.323000000000004</v>
+        <v>19.323</v>
       </c>
       <c r="L340" s="72">
         <v>64.353000000000009</v>
       </c>
       <c r="M340" s="72">
-        <v>30.28</v>
+        <v>30.279999999999998</v>
       </c>
       <c r="N340" s="72">
-        <v>83.676000000000016</v>
+        <v>83.676000000000002</v>
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.25">
@@ -21585,7 +21585,7 @@
         <v>0</v>
       </c>
       <c r="M341" s="72">
-        <v>83.676000000000016</v>
+        <v>83.676000000000002</v>
       </c>
       <c r="N341" s="72">
         <v>0</v>
@@ -22921,13 +22921,13 @@
         <v>93.691999999999993</v>
       </c>
       <c r="L373" s="72">
-        <v>31.676000000000016</v>
+        <v>31.676000000000002</v>
       </c>
       <c r="M373" s="72">
         <v>83.209000000000003</v>
       </c>
       <c r="N373" s="72">
-        <v>125.36800000000001</v>
+        <v>125.36799999999999</v>
       </c>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.25">
@@ -22965,13 +22965,13 @@
         <v>67.194999999999993</v>
       </c>
       <c r="L374" s="72">
-        <v>80.748999999999995</v>
+        <v>80.749000000000024</v>
       </c>
       <c r="M374" s="72">
         <v>44.619</v>
       </c>
       <c r="N374" s="72">
-        <v>147.94399999999999</v>
+        <v>147.94400000000002</v>
       </c>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.25">
@@ -23009,13 +23009,13 @@
         <v>10.661</v>
       </c>
       <c r="L375" s="72">
-        <v>82.896000000000001</v>
+        <v>82.895999999999987</v>
       </c>
       <c r="M375" s="72">
         <v>65.048000000000002</v>
       </c>
       <c r="N375" s="72">
-        <v>93.557000000000002</v>
+        <v>93.556999999999988</v>
       </c>
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.25">
@@ -23050,13 +23050,13 @@
         <v>70</v>
       </c>
       <c r="K376" s="72">
-        <v>13.536</v>
+        <v>13.536000000000001</v>
       </c>
       <c r="L376" s="72">
         <v>63.882000000000005</v>
       </c>
       <c r="M376" s="72">
-        <v>29.675000000000001</v>
+        <v>29.674999999999997</v>
       </c>
       <c r="N376" s="72">
         <v>77.418000000000006</v>
@@ -24518,16 +24518,16 @@
         <v>70</v>
       </c>
       <c r="K411" s="72">
-        <v>39.38900000000001</v>
+        <v>39.388999999999996</v>
       </c>
       <c r="L411" s="72">
-        <v>87.969999999999985</v>
+        <v>87.970000000000013</v>
       </c>
       <c r="M411" s="72">
-        <v>56.4</v>
+        <v>56.399999999999991</v>
       </c>
       <c r="N411" s="72">
-        <v>127.35899999999999</v>
+        <v>127.35900000000001</v>
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.25">
@@ -25828,7 +25828,7 @@
         <v>49.51400000000001</v>
       </c>
       <c r="M442" s="72">
-        <v>38.293000000000006</v>
+        <v>38.292999999999999</v>
       </c>
       <c r="N442" s="72">
         <v>59.763000000000005</v>
@@ -25898,7 +25898,7 @@
         <v>70</v>
       </c>
       <c r="K444" s="72">
-        <v>99.130999999999986</v>
+        <v>99.131</v>
       </c>
       <c r="L444" s="72">
         <v>0</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="N444" s="72">
-        <v>99.130999999999986</v>
+        <v>99.131</v>
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.25">
@@ -25945,13 +25945,13 @@
         <v>27.603999999999999</v>
       </c>
       <c r="L445" s="72">
-        <v>43.262999999999991</v>
+        <v>43.263000000000005</v>
       </c>
       <c r="M445" s="72">
-        <v>55.868000000000002</v>
+        <v>55.868000000000009</v>
       </c>
       <c r="N445" s="72">
-        <v>70.86699999999999</v>
+        <v>70.867000000000004</v>
       </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.25">
@@ -27586,7 +27586,7 @@
         <v>70</v>
       </c>
       <c r="K484" s="72">
-        <v>28.157999999999998</v>
+        <v>28.158000000000001</v>
       </c>
       <c r="L484" s="72">
         <v>100.79600000000001</v>
@@ -28805,13 +28805,13 @@
         <v>17.438000000000002</v>
       </c>
       <c r="L513" s="72">
-        <v>72.606999999999999</v>
+        <v>72.606999999999985</v>
       </c>
       <c r="M513" s="72">
         <v>158.584</v>
       </c>
       <c r="N513" s="72">
-        <v>90.045000000000002</v>
+        <v>90.044999999999987</v>
       </c>
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.25">
@@ -28846,13 +28846,13 @@
         <v>70</v>
       </c>
       <c r="K514" s="72">
-        <v>50.748000000000005</v>
+        <v>50.747999999999998</v>
       </c>
       <c r="L514" s="72">
-        <v>53.707000000000008</v>
+        <v>53.707000000000015</v>
       </c>
       <c r="M514" s="72">
-        <v>36.338000000000001</v>
+        <v>36.337999999999994</v>
       </c>
       <c r="N514" s="72">
         <v>104.45500000000001</v>
@@ -28966,13 +28966,13 @@
         <v>70</v>
       </c>
       <c r="K517" s="72">
-        <v>81.627999999999986</v>
+        <v>81.628000000000014</v>
       </c>
       <c r="L517" s="72">
-        <v>67.177000000000021</v>
+        <v>67.176999999999992</v>
       </c>
       <c r="M517" s="72">
-        <v>31.913000000000004</v>
+        <v>31.912999999999997</v>
       </c>
       <c r="N517" s="72">
         <v>148.80500000000001</v>
@@ -29013,13 +29013,13 @@
         <v>49.412999999999997</v>
       </c>
       <c r="L518" s="72">
-        <v>110.32900000000002</v>
+        <v>110.32899999999999</v>
       </c>
       <c r="M518" s="72">
         <v>38.475999999999999</v>
       </c>
       <c r="N518" s="72">
-        <v>159.74200000000002</v>
+        <v>159.74199999999999</v>
       </c>
     </row>
     <row r="519" spans="1:14" x14ac:dyDescent="0.25">
@@ -30569,13 +30569,13 @@
         <v>23.504999999999999</v>
       </c>
       <c r="L555" s="72">
-        <v>74.260000000000005</v>
+        <v>74.260000000000019</v>
       </c>
       <c r="M555" s="72">
         <v>46.83</v>
       </c>
       <c r="N555" s="72">
-        <v>97.765000000000001</v>
+        <v>97.765000000000015</v>
       </c>
     </row>
     <row r="556" spans="1:14" x14ac:dyDescent="0.25">
@@ -30613,13 +30613,13 @@
         <v>47.738999999999997</v>
       </c>
       <c r="L556" s="72">
-        <v>42.08600000000002</v>
+        <v>42.086000000000006</v>
       </c>
       <c r="M556" s="72">
-        <v>55.678999999999995</v>
+        <v>55.679000000000002</v>
       </c>
       <c r="N556" s="72">
-        <v>89.825000000000017</v>
+        <v>89.825000000000003</v>
       </c>
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.25">
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="M557" s="72">
-        <v>89.825000000000017</v>
+        <v>89.825000000000003</v>
       </c>
       <c r="N557" s="72">
         <v>0</v>
@@ -32034,7 +32034,7 @@
         <v>70</v>
       </c>
       <c r="K590" s="72">
-        <v>69.170999999999992</v>
+        <v>69.171000000000006</v>
       </c>
       <c r="L590" s="72">
         <v>43.059999999999988</v>
@@ -32043,7 +32043,7 @@
         <v>12.388999999999999</v>
       </c>
       <c r="N590" s="72">
-        <v>112.23099999999998</v>
+        <v>112.23099999999999</v>
       </c>
     </row>
     <row r="591" spans="1:14" x14ac:dyDescent="0.25">
@@ -32078,13 +32078,13 @@
         <v>70</v>
       </c>
       <c r="K591" s="72">
-        <v>50.385000000000005</v>
+        <v>50.384999999999991</v>
       </c>
       <c r="L591" s="72">
-        <v>59.186999999999998</v>
+        <v>59.187000000000012</v>
       </c>
       <c r="M591" s="72">
-        <v>53.043999999999997</v>
+        <v>53.044000000000004</v>
       </c>
       <c r="N591" s="72">
         <v>109.572</v>
@@ -32125,13 +32125,13 @@
         <v>39.418999999999997</v>
       </c>
       <c r="L592" s="72">
-        <v>27.612999999999985</v>
+        <v>27.613000000000014</v>
       </c>
       <c r="M592" s="72">
         <v>81.959000000000003</v>
       </c>
       <c r="N592" s="72">
-        <v>67.031999999999982</v>
+        <v>67.032000000000011</v>
       </c>
     </row>
     <row r="593" spans="1:14" x14ac:dyDescent="0.25">
@@ -32169,7 +32169,7 @@
         <v>0</v>
       </c>
       <c r="M593" s="72">
-        <v>67.031999999999982</v>
+        <v>67.032000000000011</v>
       </c>
       <c r="N593" s="72">
         <v>0</v>
@@ -33505,13 +33505,13 @@
         <v>68.602000000000004</v>
       </c>
       <c r="L625" s="72">
-        <v>34.015000000000015</v>
+        <v>34.015000000000001</v>
       </c>
       <c r="M625" s="72">
         <v>2.5060000000000002</v>
       </c>
       <c r="N625" s="72">
-        <v>102.61700000000002</v>
+        <v>102.617</v>
       </c>
     </row>
     <row r="626" spans="1:14" x14ac:dyDescent="0.25">
@@ -33546,10 +33546,10 @@
         <v>70</v>
       </c>
       <c r="K626" s="72">
-        <v>131.727</v>
+        <v>131.72699999999998</v>
       </c>
       <c r="L626" s="72">
-        <v>62.668999999999983</v>
+        <v>62.669000000000011</v>
       </c>
       <c r="M626" s="72">
         <v>39.948000000000008</v>
@@ -33596,7 +33596,7 @@
         <v>147.48999999999998</v>
       </c>
       <c r="M627" s="72">
-        <v>46.906000000000006</v>
+        <v>46.905999999999992</v>
       </c>
       <c r="N627" s="72">
         <v>191.30599999999998</v>
@@ -34850,16 +34850,16 @@
         <v>70</v>
       </c>
       <c r="K657" s="72">
-        <v>21.000000000000004</v>
+        <v>21</v>
       </c>
       <c r="L657" s="72">
-        <v>221.065</v>
+        <v>221.06499999999997</v>
       </c>
       <c r="M657" s="72">
         <v>10.247999999999999</v>
       </c>
       <c r="N657" s="72">
-        <v>242.065</v>
+        <v>242.06499999999997</v>
       </c>
     </row>
     <row r="658" spans="1:14" x14ac:dyDescent="0.25">
@@ -34970,7 +34970,7 @@
         <v>70</v>
       </c>
       <c r="K660" s="72">
-        <v>239.79500000000002</v>
+        <v>239.79499999999996</v>
       </c>
       <c r="L660" s="72">
         <v>0</v>
@@ -34979,7 +34979,7 @@
         <v>0</v>
       </c>
       <c r="N660" s="72">
-        <v>239.79500000000002</v>
+        <v>239.79499999999996</v>
       </c>
     </row>
     <row r="661" spans="1:14" x14ac:dyDescent="0.25">
@@ -36526,10 +36526,10 @@
         <v>70</v>
       </c>
       <c r="K697" s="72">
-        <v>81.974000000000004</v>
+        <v>81.974000000000018</v>
       </c>
       <c r="L697" s="72">
-        <v>21.027000000000001</v>
+        <v>21.026999999999987</v>
       </c>
       <c r="M697" s="72">
         <v>86.248000000000005</v>
@@ -36576,7 +36576,7 @@
         <v>85.402000000000015</v>
       </c>
       <c r="M698" s="72">
-        <v>17.599000000000004</v>
+        <v>17.599</v>
       </c>
       <c r="N698" s="72">
         <v>88.794000000000011</v>
@@ -36614,7 +36614,7 @@
         <v>70</v>
       </c>
       <c r="K699" s="72">
-        <v>10.940000000000001</v>
+        <v>10.94</v>
       </c>
       <c r="L699" s="72">
         <v>68.63300000000001</v>
@@ -36661,13 +36661,13 @@
         <v>4.7949999999999999</v>
       </c>
       <c r="L700" s="72">
-        <v>52.382000000000005</v>
+        <v>52.381999999999998</v>
       </c>
       <c r="M700" s="72">
-        <v>27.19100000000001</v>
+        <v>27.190999999999999</v>
       </c>
       <c r="N700" s="72">
-        <v>57.177000000000007</v>
+        <v>57.177</v>
       </c>
     </row>
     <row r="701" spans="1:14" x14ac:dyDescent="0.25">
@@ -36705,7 +36705,7 @@
         <v>0</v>
       </c>
       <c r="M701" s="72">
-        <v>57.177000000000007</v>
+        <v>57.177</v>
       </c>
       <c r="N701" s="72">
         <v>0</v>
@@ -38041,13 +38041,13 @@
         <v>129.12700000000001</v>
       </c>
       <c r="L733" s="72">
-        <v>90.683999999999969</v>
+        <v>90.683999999999997</v>
       </c>
       <c r="M733" s="72">
-        <v>53.26400000000001</v>
+        <v>53.264000000000003</v>
       </c>
       <c r="N733" s="72">
-        <v>219.81099999999998</v>
+        <v>219.81100000000001</v>
       </c>
     </row>
     <row r="734" spans="1:14" x14ac:dyDescent="0.25">
@@ -38088,7 +38088,7 @@
         <v>106.87300000000002</v>
       </c>
       <c r="M734" s="72">
-        <v>112.93800000000002</v>
+        <v>112.93799999999999</v>
       </c>
       <c r="N734" s="72">
         <v>197.87700000000001</v>
@@ -38132,7 +38132,7 @@
         <v>101.82600000000001</v>
       </c>
       <c r="M735" s="72">
-        <v>96.051000000000002</v>
+        <v>96.050999999999988</v>
       </c>
       <c r="N735" s="72">
         <v>138.90600000000001</v>
@@ -38173,13 +38173,13 @@
         <v>9.0569999999999986</v>
       </c>
       <c r="L736" s="72">
-        <v>38.220999999999989</v>
+        <v>38.221000000000004</v>
       </c>
       <c r="M736" s="72">
         <v>100.685</v>
       </c>
       <c r="N736" s="72">
-        <v>47.277999999999992</v>
+        <v>47.278000000000006</v>
       </c>
     </row>
     <row r="737" spans="1:14" x14ac:dyDescent="0.25">
@@ -38217,7 +38217,7 @@
         <v>0</v>
       </c>
       <c r="M737" s="72">
-        <v>47.277999999999992</v>
+        <v>47.278000000000006</v>
       </c>
       <c r="N737" s="72">
         <v>0</v>
@@ -39342,16 +39342,16 @@
         <v>70</v>
       </c>
       <c r="K764" s="72">
-        <v>197.63</v>
+        <v>197.63000000000002</v>
       </c>
       <c r="L764" s="72">
-        <v>199.54500000000007</v>
+        <v>199.54499999999999</v>
       </c>
       <c r="M764" s="72">
         <v>47.394000000000005</v>
       </c>
       <c r="N764" s="72">
-        <v>397.17500000000007</v>
+        <v>397.17500000000001</v>
       </c>
     </row>
     <row r="765" spans="1:14" x14ac:dyDescent="0.25">
@@ -39433,13 +39433,13 @@
         <v>37.536000000000001</v>
       </c>
       <c r="L766" s="72">
-        <v>25.391000000000005</v>
+        <v>25.390999999999991</v>
       </c>
       <c r="M766" s="72">
         <v>44.49</v>
       </c>
       <c r="N766" s="72">
-        <v>62.927000000000007</v>
+        <v>62.926999999999992</v>
       </c>
     </row>
     <row r="767" spans="1:14" x14ac:dyDescent="0.25">
@@ -39477,7 +39477,7 @@
         <v>0</v>
       </c>
       <c r="M767" s="72">
-        <v>62.927000000000007</v>
+        <v>62.926999999999992</v>
       </c>
       <c r="N767" s="72">
         <v>0</v>
@@ -39506,7 +39506,7 @@
         <v>70</v>
       </c>
       <c r="K768" s="72">
-        <v>134.99600000000001</v>
+        <v>134.99600000000004</v>
       </c>
       <c r="L768" s="72">
         <v>0</v>
@@ -39515,7 +39515,7 @@
         <v>0</v>
       </c>
       <c r="N768" s="72">
-        <v>134.99600000000001</v>
+        <v>134.99600000000004</v>
       </c>
     </row>
     <row r="769" spans="1:14" x14ac:dyDescent="0.25">
@@ -39556,7 +39556,7 @@
         <v>94.925999999999988</v>
       </c>
       <c r="M769" s="72">
-        <v>40.070000000000007</v>
+        <v>40.069999999999993</v>
       </c>
       <c r="N769" s="72">
         <v>161.54</v>
@@ -40898,16 +40898,16 @@
         <v>70</v>
       </c>
       <c r="K801" s="72">
-        <v>147.75100000000003</v>
+        <v>147.751</v>
       </c>
       <c r="L801" s="72">
-        <v>147.41500000000002</v>
+        <v>147.41499999999999</v>
       </c>
       <c r="M801" s="72">
         <v>32.021000000000001</v>
       </c>
       <c r="N801" s="72">
-        <v>295.16600000000005</v>
+        <v>295.166</v>
       </c>
     </row>
     <row r="802" spans="1:14" x14ac:dyDescent="0.25">
@@ -41109,13 +41109,13 @@
         <v>85.631</v>
       </c>
       <c r="L806" s="72">
-        <v>40.615000000000009</v>
+        <v>40.614999999999981</v>
       </c>
       <c r="M806" s="72">
         <v>3.4039999999999999</v>
       </c>
       <c r="N806" s="72">
-        <v>126.24600000000001</v>
+        <v>126.24599999999998</v>
       </c>
     </row>
     <row r="807" spans="1:14" x14ac:dyDescent="0.25">
@@ -42577,13 +42577,13 @@
         <v>86.518000000000001</v>
       </c>
       <c r="L841" s="72">
-        <v>115.78700000000001</v>
+        <v>115.78700000000003</v>
       </c>
       <c r="M841" s="72">
         <v>59.335999999999999</v>
       </c>
       <c r="N841" s="72">
-        <v>202.30500000000001</v>
+        <v>202.30500000000004</v>
       </c>
     </row>
     <row r="842" spans="1:14" x14ac:dyDescent="0.25">
@@ -42618,16 +42618,16 @@
         <v>70</v>
       </c>
       <c r="K842" s="72">
-        <v>63.878</v>
+        <v>63.878000000000007</v>
       </c>
       <c r="L842" s="72">
-        <v>180.274</v>
+        <v>180.27399999999997</v>
       </c>
       <c r="M842" s="72">
         <v>22.031000000000002</v>
       </c>
       <c r="N842" s="72">
-        <v>244.15200000000002</v>
+        <v>244.15199999999999</v>
       </c>
     </row>
     <row r="843" spans="1:14" x14ac:dyDescent="0.25">
@@ -42668,7 +42668,7 @@
         <v>157.821</v>
       </c>
       <c r="M843" s="72">
-        <v>86.331000000000017</v>
+        <v>86.331000000000003</v>
       </c>
       <c r="N843" s="72">
         <v>213.517</v>
@@ -42706,16 +42706,16 @@
         <v>70</v>
       </c>
       <c r="K844" s="72">
-        <v>17.224999999999998</v>
+        <v>17.225000000000001</v>
       </c>
       <c r="L844" s="72">
-        <v>21.047000000000001</v>
+        <v>21.047000000000004</v>
       </c>
       <c r="M844" s="72">
         <v>192.47000000000003</v>
       </c>
       <c r="N844" s="72">
-        <v>38.271999999999998</v>
+        <v>38.272000000000006</v>
       </c>
     </row>
     <row r="845" spans="1:14" x14ac:dyDescent="0.25">
@@ -42753,7 +42753,7 @@
         <v>0</v>
       </c>
       <c r="M845" s="72">
-        <v>38.271999999999998</v>
+        <v>38.272000000000006</v>
       </c>
       <c r="N845" s="72">
         <v>0</v>
@@ -43834,16 +43834,16 @@
         <v>70</v>
       </c>
       <c r="K871" s="72">
-        <v>208.46299999999999</v>
+        <v>208.46300000000002</v>
       </c>
       <c r="L871" s="72">
-        <v>9.0380000000000109</v>
+        <v>9.0379999999999541</v>
       </c>
       <c r="M871" s="72">
         <v>0</v>
       </c>
       <c r="N871" s="72">
-        <v>217.501</v>
+        <v>217.50099999999998</v>
       </c>
     </row>
     <row r="872" spans="1:14" x14ac:dyDescent="0.25">
@@ -43884,7 +43884,7 @@
         <v>194.19799999999998</v>
       </c>
       <c r="M872" s="72">
-        <v>23.303000000000001</v>
+        <v>23.302999999999997</v>
       </c>
       <c r="N872" s="72">
         <v>260.05599999999998</v>
@@ -43925,13 +43925,13 @@
         <v>10.443999999999999</v>
       </c>
       <c r="L873" s="72">
-        <v>73.553999999999988</v>
+        <v>73.554000000000002</v>
       </c>
       <c r="M873" s="72">
         <v>186.50200000000001</v>
       </c>
       <c r="N873" s="72">
-        <v>83.99799999999999</v>
+        <v>83.998000000000005</v>
       </c>
     </row>
     <row r="874" spans="1:14" x14ac:dyDescent="0.25">
@@ -43972,7 +43972,7 @@
         <v>19.597000000000001</v>
       </c>
       <c r="M874" s="72">
-        <v>64.40100000000001</v>
+        <v>64.400999999999996</v>
       </c>
       <c r="N874" s="72">
         <v>20.433</v>
@@ -45434,16 +45434,16 @@
         <v>70</v>
       </c>
       <c r="K909" s="72">
-        <v>33.172000000000004</v>
+        <v>33.171999999999997</v>
       </c>
       <c r="L909" s="72">
-        <v>60.292999999999971</v>
+        <v>60.293000000000021</v>
       </c>
       <c r="M909" s="72">
-        <v>31.386999999999997</v>
+        <v>31.387</v>
       </c>
       <c r="N909" s="72">
-        <v>93.464999999999975</v>
+        <v>93.465000000000018</v>
       </c>
     </row>
     <row r="910" spans="1:14" x14ac:dyDescent="0.25">
@@ -45481,13 +45481,13 @@
         <v>36.86</v>
       </c>
       <c r="L910" s="72">
-        <v>7.095000000000006</v>
+        <v>7.0949999999999989</v>
       </c>
       <c r="M910" s="72">
-        <v>86.36999999999999</v>
+        <v>86.37</v>
       </c>
       <c r="N910" s="72">
-        <v>43.955000000000005</v>
+        <v>43.954999999999998</v>
       </c>
     </row>
     <row r="911" spans="1:14" x14ac:dyDescent="0.25">
@@ -45525,7 +45525,7 @@
         <v>0</v>
       </c>
       <c r="M911" s="72">
-        <v>43.955000000000005</v>
+        <v>43.954999999999998</v>
       </c>
       <c r="N911" s="72">
         <v>0</v>
@@ -45554,7 +45554,7 @@
         <v>70</v>
       </c>
       <c r="K912" s="72">
-        <v>36.513000000000005</v>
+        <v>36.512999999999998</v>
       </c>
       <c r="L912" s="72">
         <v>0</v>
@@ -45563,7 +45563,7 @@
         <v>0</v>
       </c>
       <c r="N912" s="72">
-        <v>36.513000000000005</v>
+        <v>36.512999999999998</v>
       </c>
     </row>
     <row r="913" spans="1:14" x14ac:dyDescent="0.25">
@@ -45598,10 +45598,10 @@
         <v>70</v>
       </c>
       <c r="K913" s="72">
-        <v>118.59899999999999</v>
+        <v>118.59900000000002</v>
       </c>
       <c r="L913" s="72">
-        <v>33.27800000000002</v>
+        <v>33.277999999999992</v>
       </c>
       <c r="M913" s="72">
         <v>3.2350000000000003</v>
@@ -49565,13 +49565,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>257.50799999999998</v>
+        <v>257.50799999999992</v>
       </c>
       <c r="H6" s="72">
         <v>210</v>
       </c>
       <c r="I6" s="76">
-        <v>1.2262285714285714</v>
+        <v>1.226228571428571</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -49594,13 +49594,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>54.489999999999995</v>
+        <v>54.490000000000016</v>
       </c>
       <c r="H7" s="72">
         <v>210</v>
       </c>
       <c r="I7" s="76">
-        <v>0.25947619047619047</v>
+        <v>0.25947619047619053</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -49652,13 +49652,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="72">
-        <v>17.360000000000003</v>
+        <v>17.360000000000007</v>
       </c>
       <c r="H9" s="72">
         <v>70</v>
       </c>
       <c r="I9" s="76">
-        <v>0.24800000000000005</v>
+        <v>0.24800000000000008</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -49681,13 +49681,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>81.278000000000006</v>
+        <v>81.277999999999992</v>
       </c>
       <c r="H10" s="72">
         <v>140</v>
       </c>
       <c r="I10" s="76">
-        <v>0.58055714285714288</v>
+        <v>0.58055714285714277</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -49710,13 +49710,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>60.145999999999994</v>
+        <v>60.145999999999979</v>
       </c>
       <c r="H11" s="72">
         <v>140</v>
       </c>
       <c r="I11" s="76">
-        <v>0.42961428571428567</v>
+        <v>0.42961428571428556</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -49739,13 +49739,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="72">
-        <v>263.28824999999989</v>
+        <v>263.28825000000001</v>
       </c>
       <c r="H12" s="72">
         <v>210</v>
       </c>
       <c r="I12" s="76">
-        <v>1.2537535714285708</v>
+        <v>1.2537535714285715</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -49797,13 +49797,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>56.186999999999998</v>
+        <v>56.186999999999991</v>
       </c>
       <c r="H14" s="72">
         <v>70</v>
       </c>
       <c r="I14" s="76">
-        <v>0.80267142857142859</v>
+        <v>0.80267142857142848</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -49826,13 +49826,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>51.36774999999998</v>
+        <v>51.367749999999987</v>
       </c>
       <c r="H15" s="72">
         <v>70</v>
       </c>
       <c r="I15" s="76">
-        <v>0.73382499999999973</v>
+        <v>0.73382499999999984</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -49855,13 +49855,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>56.382750000000009</v>
+        <v>56.382750000000016</v>
       </c>
       <c r="H16" s="72">
         <v>70</v>
       </c>
       <c r="I16" s="76">
-        <v>0.80546785714285729</v>
+        <v>0.8054678571428574</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -49884,13 +49884,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>20.229249999999997</v>
+        <v>20.22925</v>
       </c>
       <c r="H17" s="72">
         <v>70</v>
       </c>
       <c r="I17" s="76">
-        <v>0.28898928571428567</v>
+        <v>0.28898928571428573</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -49942,13 +49942,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.378000000000007</v>
+        <v>50.377999999999993</v>
       </c>
       <c r="H19" s="72">
         <v>70</v>
       </c>
       <c r="I19" s="76">
-        <v>0.71968571428571437</v>
+        <v>0.71968571428571415</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -50000,13 +50000,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="72">
-        <v>47.9405</v>
+        <v>47.940499999999993</v>
       </c>
       <c r="H21" s="72">
         <v>70</v>
       </c>
       <c r="I21" s="76">
-        <v>0.6848642857142857</v>
+        <v>0.68486428571428559</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -50145,13 +50145,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="72">
-        <v>18.188749999999995</v>
+        <v>18.188749999999999</v>
       </c>
       <c r="H26" s="72">
         <v>70</v>
       </c>
       <c r="I26" s="76">
-        <v>0.25983928571428566</v>
+        <v>0.25983928571428572</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -50174,13 +50174,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="72">
-        <v>16.057750000000002</v>
+        <v>16.057749999999999</v>
       </c>
       <c r="H27" s="72">
         <v>70</v>
       </c>
       <c r="I27" s="76">
-        <v>0.22939642857142861</v>
+        <v>0.22939642857142856</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -50203,13 +50203,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>143.79350000000005</v>
+        <v>143.79349999999997</v>
       </c>
       <c r="H28" s="72">
         <v>140</v>
       </c>
       <c r="I28" s="76">
-        <v>1.027096428571429</v>
+        <v>1.0270964285714284</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -50232,13 +50232,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="72">
-        <v>66.238250000000022</v>
+        <v>66.238249999999994</v>
       </c>
       <c r="H29" s="72">
         <v>140</v>
       </c>
       <c r="I29" s="76">
-        <v>0.47313035714285728</v>
+        <v>0.47313035714285712</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -50261,13 +50261,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>270.00850000000003</v>
+        <v>270.00849999999997</v>
       </c>
       <c r="H30" s="72">
         <v>280</v>
       </c>
       <c r="I30" s="76">
-        <v>0.96431607142857156</v>
+        <v>0.96431607142857134</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -50290,7 +50290,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>98.200750000000028</v>
+        <v>98.200750000000014</v>
       </c>
       <c r="H31" s="72">
         <v>280</v>
@@ -50319,13 +50319,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>66.739000000000004</v>
+        <v>66.73899999999999</v>
       </c>
       <c r="H32" s="72">
         <v>140</v>
       </c>
       <c r="I32" s="76">
-        <v>0.47670714285714288</v>
+        <v>0.47670714285714277</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -50406,13 +50406,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>99.021500000000017</v>
+        <v>99.021500000000032</v>
       </c>
       <c r="H35" s="72">
         <v>210</v>
       </c>
       <c r="I35" s="76">
-        <v>0.47153095238095244</v>
+        <v>0.47153095238095255</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -50435,13 +50435,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>66.191250000000011</v>
+        <v>66.191249999999982</v>
       </c>
       <c r="H36" s="72">
         <v>70</v>
       </c>
       <c r="I36" s="76">
-        <v>0.94558928571428591</v>
+        <v>0.94558928571428547</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -50464,13 +50464,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>74.405500000000018</v>
+        <v>74.405500000000004</v>
       </c>
       <c r="H37" s="72">
         <v>70</v>
       </c>
       <c r="I37" s="76">
-        <v>1.0629357142857145</v>
+        <v>1.0629357142857143</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -50493,13 +50493,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="72">
-        <v>156.43199999999999</v>
+        <v>156.43200000000007</v>
       </c>
       <c r="H38" s="72">
         <v>140</v>
       </c>
       <c r="I38" s="76">
-        <v>1.1173714285714285</v>
+        <v>1.1173714285714291</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -50522,13 +50522,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="72">
-        <v>97.248250000000013</v>
+        <v>97.248249999999999</v>
       </c>
       <c r="H39" s="72">
         <v>140</v>
       </c>
       <c r="I39" s="76">
-        <v>0.69463035714285726</v>
+        <v>0.69463035714285715</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -50551,13 +50551,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="72">
-        <v>42.847749999999991</v>
+        <v>42.847749999999998</v>
       </c>
       <c r="H40" s="72">
         <v>70</v>
       </c>
       <c r="I40" s="76">
-        <v>0.61211071428571417</v>
+        <v>0.61211071428571429</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -50580,13 +50580,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="72">
-        <v>35.624749999999992</v>
+        <v>35.624750000000006</v>
       </c>
       <c r="H41" s="72">
         <v>70</v>
       </c>
       <c r="I41" s="76">
-        <v>0.50892499999999985</v>
+        <v>0.50892500000000007</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -50609,13 +50609,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>122.98825000000002</v>
+        <v>122.98824999999999</v>
       </c>
       <c r="H42" s="72">
         <v>140</v>
       </c>
       <c r="I42" s="76">
-        <v>0.8784875000000002</v>
+        <v>0.87848749999999998</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -50638,13 +50638,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>59.180250000000022</v>
+        <v>59.180249999999994</v>
       </c>
       <c r="H43" s="72">
         <v>140</v>
       </c>
       <c r="I43" s="76">
-        <v>0.42271607142857159</v>
+        <v>0.42271607142857137</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -50667,13 +50667,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="72">
-        <v>30.801249999999989</v>
+        <v>30.801250000000003</v>
       </c>
       <c r="H44" s="72">
         <v>70</v>
       </c>
       <c r="I44" s="76">
-        <v>0.44001785714285696</v>
+        <v>0.44001785714285718</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -50696,13 +50696,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="72">
-        <v>66.329000000000036</v>
+        <v>66.328999999999994</v>
       </c>
       <c r="H45" s="72">
         <v>70</v>
       </c>
       <c r="I45" s="76">
-        <v>0.94755714285714332</v>
+        <v>0.94755714285714276</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -50725,13 +50725,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>411.89875000000018</v>
+        <v>411.89875000000006</v>
       </c>
       <c r="H46" s="72">
         <v>350</v>
       </c>
       <c r="I46" s="76">
-        <v>1.1768535714285719</v>
+        <v>1.1768535714285717</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -50754,13 +50754,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>180.19399999999999</v>
+        <v>180.19400000000005</v>
       </c>
       <c r="H47" s="72">
         <v>350</v>
       </c>
       <c r="I47" s="76">
-        <v>0.51483999999999996</v>
+        <v>0.51484000000000008</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -50783,13 +50783,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="72">
-        <v>100.51025000000001</v>
+        <v>100.51024999999998</v>
       </c>
       <c r="H48" s="72">
         <v>140</v>
       </c>
       <c r="I48" s="76">
-        <v>0.71793035714285725</v>
+        <v>0.71793035714285702</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -50812,13 +50812,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="72">
-        <v>112.83450000000003</v>
+        <v>112.83450000000005</v>
       </c>
       <c r="H49" s="72">
         <v>140</v>
       </c>
       <c r="I49" s="76">
-        <v>0.80596071428571447</v>
+        <v>0.80596071428571459</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -50870,13 +50870,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>312.93350000000009</v>
+        <v>312.93350000000004</v>
       </c>
       <c r="H51" s="72">
         <v>210</v>
       </c>
       <c r="I51" s="76">
-        <v>1.4901595238095242</v>
+        <v>1.490159523809524</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -50899,13 +50899,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>174.17674999999997</v>
+        <v>174.17675</v>
       </c>
       <c r="H52" s="72">
         <v>210</v>
       </c>
       <c r="I52" s="76">
-        <v>0.82941309523809514</v>
+        <v>0.82941309523809525</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -50928,13 +50928,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>232.63650000000007</v>
+        <v>232.63649999999998</v>
       </c>
       <c r="H53" s="72">
         <v>210</v>
       </c>
       <c r="I53" s="76">
-        <v>1.1077928571428575</v>
+        <v>1.107792857142857</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -50957,13 +50957,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>41.384999999999991</v>
+        <v>41.385000000000005</v>
       </c>
       <c r="H54" s="72">
         <v>70</v>
       </c>
       <c r="I54" s="76">
-        <v>0.59121428571428558</v>
+        <v>0.5912142857142858</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -50986,13 +50986,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>49.621500000000012</v>
+        <v>49.621499999999997</v>
       </c>
       <c r="H55" s="72">
         <v>70</v>
       </c>
       <c r="I55" s="76">
-        <v>0.70887857142857158</v>
+        <v>0.70887857142857136</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -51015,13 +51015,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="72">
-        <v>100.16224999999999</v>
+        <v>100.16225</v>
       </c>
       <c r="H56" s="72">
         <v>140</v>
       </c>
       <c r="I56" s="76">
-        <v>0.71544464285714271</v>
+        <v>0.71544464285714282</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -51044,13 +51044,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="72">
-        <v>123.94749999999991</v>
+        <v>123.94749999999999</v>
       </c>
       <c r="H57" s="72">
         <v>140</v>
       </c>
       <c r="I57" s="76">
-        <v>0.885339285714285</v>
+        <v>0.88533928571428566</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -51073,7 +51073,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="72">
-        <v>36.502000000000002</v>
+        <v>36.501999999999995</v>
       </c>
       <c r="H58" s="72">
         <v>70</v>
@@ -51102,13 +51102,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="72">
-        <v>18.089000000000006</v>
+        <v>18.089000000000002</v>
       </c>
       <c r="H59" s="72">
         <v>70</v>
       </c>
       <c r="I59" s="76">
-        <v>0.25841428571428582</v>
+        <v>0.25841428571428576</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -51247,13 +51247,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>61.655749999999976</v>
+        <v>61.655749999999998</v>
       </c>
       <c r="H64" s="72">
         <v>140</v>
       </c>
       <c r="I64" s="76">
-        <v>0.44039821428571413</v>
+        <v>0.4403982142857143</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -51305,13 +51305,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="72">
-        <v>93.393000000000001</v>
+        <v>93.392999999999972</v>
       </c>
       <c r="H66" s="72">
         <v>70</v>
       </c>
       <c r="I66" s="76">
-        <v>1.3341857142857143</v>
+        <v>1.3341857142857139</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -51363,13 +51363,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>140.32300000000004</v>
+        <v>140.32299999999998</v>
       </c>
       <c r="H68" s="72">
         <v>140</v>
       </c>
       <c r="I68" s="76">
-        <v>1.0023071428571431</v>
+        <v>1.0023071428571426</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -51392,13 +51392,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>139.34674999999999</v>
+        <v>139.34675000000001</v>
       </c>
       <c r="H69" s="72">
         <v>140</v>
       </c>
       <c r="I69" s="76">
-        <v>0.99533392857142844</v>
+        <v>0.99533392857142866</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -51450,13 +51450,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>54.632499999999986</v>
+        <v>54.6325</v>
       </c>
       <c r="H71" s="72">
         <v>70</v>
       </c>
       <c r="I71" s="76">
-        <v>0.7804642857142855</v>
+        <v>0.78046428571428572</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -51479,13 +51479,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>116.71625000000004</v>
+        <v>116.71624999999999</v>
       </c>
       <c r="H72" s="72">
         <v>70</v>
       </c>
       <c r="I72" s="76">
-        <v>1.6673750000000007</v>
+        <v>1.6673749999999998</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -51508,13 +51508,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>64.614750000000015</v>
+        <v>64.614750000000001</v>
       </c>
       <c r="H73" s="72">
         <v>70</v>
       </c>
       <c r="I73" s="76">
-        <v>0.92306785714285733</v>
+        <v>0.92306785714285711</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -51537,13 +51537,13 @@
         <v>0</v>
       </c>
       <c r="G74" s="72">
-        <v>22.291749999999997</v>
+        <v>22.291750000000008</v>
       </c>
       <c r="H74" s="72">
         <v>70</v>
       </c>
       <c r="I74" s="76">
-        <v>0.31845357142857139</v>
+        <v>0.31845357142857156</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -51653,13 +51653,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>52.302</v>
+        <v>52.302000000000007</v>
       </c>
       <c r="H78" s="72">
         <v>70</v>
       </c>
       <c r="I78" s="76">
-        <v>0.7471714285714286</v>
+        <v>0.74717142857142871</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -51682,13 +51682,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>48.524750000000012</v>
+        <v>48.524749999999997</v>
       </c>
       <c r="H79" s="72">
         <v>70</v>
       </c>
       <c r="I79" s="76">
-        <v>0.69321071428571446</v>
+        <v>0.69321071428571424</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -51740,13 +51740,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>49.30775000000002</v>
+        <v>49.307749999999999</v>
       </c>
       <c r="H81" s="72">
         <v>70</v>
       </c>
       <c r="I81" s="76">
-        <v>0.70439642857142881</v>
+        <v>0.70439642857142859</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -51769,13 +51769,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>97.642749999999992</v>
+        <v>97.642749999999964</v>
       </c>
       <c r="H82" s="72">
         <v>70</v>
       </c>
       <c r="I82" s="76">
-        <v>1.3948964285714285</v>
+        <v>1.394896428571428</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -51798,13 +51798,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>26.060499999999998</v>
+        <v>26.060500000000005</v>
       </c>
       <c r="H83" s="72">
         <v>70</v>
       </c>
       <c r="I83" s="76">
-        <v>0.37229285714285709</v>
+        <v>0.3722928571428572</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -51827,13 +51827,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>79.68249999999999</v>
+        <v>79.682500000000005</v>
       </c>
       <c r="H84" s="72">
         <v>140</v>
       </c>
       <c r="I84" s="76">
-        <v>0.56916071428571424</v>
+        <v>0.56916071428571435</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -51856,13 +51856,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>33.780499999999982</v>
+        <v>33.780499999999996</v>
       </c>
       <c r="H85" s="72">
         <v>140</v>
       </c>
       <c r="I85" s="76">
-        <v>0.2412892857142856</v>
+        <v>0.24128928571428568</v>
       </c>
     </row>
   </sheetData>

--- a/Grid_5x5/Solutions/Solution_NDP_S064/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S064/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2688,7 +2688,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.37601154585778068</v>
+        <v>0.37601154585778074</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2709,7 +2709,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>1.6673749999999998</v>
+        <v>1.6673750000000005</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -2729,7 +2729,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>2.4541428571428576</v>
+        <v>2.4541428571428572</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -7552,7 +7552,7 @@
         <v>123.08800000000002</v>
       </c>
       <c r="M7" s="72">
-        <v>37.020000000000003</v>
+        <v>37.019999999999996</v>
       </c>
       <c r="N7" s="72">
         <v>210.11</v>
@@ -7593,13 +7593,13 @@
         <v>196.67000000000002</v>
       </c>
       <c r="L8" s="72">
-        <v>112.09199999999993</v>
+        <v>112.09199999999998</v>
       </c>
       <c r="M8" s="72">
         <v>98.018000000000001</v>
       </c>
       <c r="N8" s="72">
-        <v>308.76199999999994</v>
+        <v>308.762</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -7754,7 +7754,7 @@
         <v>70</v>
       </c>
       <c r="K12" s="72">
-        <v>103.408</v>
+        <v>103.40799999999999</v>
       </c>
       <c r="L12" s="72">
         <v>0</v>
@@ -7763,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="72">
-        <v>103.408</v>
+        <v>103.40799999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -9310,10 +9310,10 @@
         <v>70</v>
       </c>
       <c r="K49" s="72">
-        <v>103.47300000000001</v>
+        <v>103.47299999999998</v>
       </c>
       <c r="L49" s="72">
-        <v>41.930999999999983</v>
+        <v>41.931000000000012</v>
       </c>
       <c r="M49" s="72">
         <v>61.966999999999999</v>
@@ -9401,13 +9401,13 @@
         <v>50.369</v>
       </c>
       <c r="L51" s="72">
-        <v>44.962000000000003</v>
+        <v>44.961999999999989</v>
       </c>
       <c r="M51" s="72">
         <v>63.734000000000002</v>
       </c>
       <c r="N51" s="72">
-        <v>95.331000000000003</v>
+        <v>95.330999999999989</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -9445,13 +9445,13 @@
         <v>14.843</v>
       </c>
       <c r="L52" s="72">
-        <v>55.381000000000014</v>
+        <v>55.381</v>
       </c>
       <c r="M52" s="72">
         <v>39.950000000000003</v>
       </c>
       <c r="N52" s="72">
-        <v>70.224000000000018</v>
+        <v>70.224000000000004</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="72">
-        <v>70.224000000000018</v>
+        <v>70.224000000000004</v>
       </c>
       <c r="N53" s="72">
         <v>0</v>
@@ -10822,16 +10822,16 @@
         <v>70</v>
       </c>
       <c r="K85" s="72">
-        <v>7.870000000000001</v>
+        <v>7.87</v>
       </c>
       <c r="L85" s="72">
-        <v>45.506999999999991</v>
+        <v>45.507000000000005</v>
       </c>
       <c r="M85" s="72">
         <v>15.224</v>
       </c>
       <c r="N85" s="72">
-        <v>53.376999999999995</v>
+        <v>53.377000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -10866,13 +10866,13 @@
         <v>70</v>
       </c>
       <c r="K86" s="72">
-        <v>28.724999999999998</v>
+        <v>28.725000000000001</v>
       </c>
       <c r="L86" s="72">
-        <v>25.757000000000001</v>
+        <v>25.756999999999998</v>
       </c>
       <c r="M86" s="72">
-        <v>27.620000000000005</v>
+        <v>27.62</v>
       </c>
       <c r="N86" s="72">
         <v>54.481999999999999</v>
@@ -10957,13 +10957,13 @@
         <v>13.396000000000001</v>
       </c>
       <c r="L88" s="72">
-        <v>8.8419999999999987</v>
+        <v>8.8420000000000023</v>
       </c>
       <c r="M88" s="72">
         <v>28.608000000000004</v>
       </c>
       <c r="N88" s="72">
-        <v>22.238</v>
+        <v>22.238000000000003</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="72">
-        <v>22.238</v>
+        <v>22.238000000000003</v>
       </c>
       <c r="N89" s="72">
         <v>0</v>
@@ -12082,10 +12082,10 @@
         <v>70</v>
       </c>
       <c r="K115" s="72">
-        <v>31.248999999999999</v>
+        <v>31.248999999999995</v>
       </c>
       <c r="L115" s="72">
-        <v>12.999000000000006</v>
+        <v>12.999000000000009</v>
       </c>
       <c r="M115" s="72">
         <v>12.093999999999999</v>
@@ -12126,7 +12126,7 @@
         <v>70</v>
       </c>
       <c r="K116" s="72">
-        <v>18.406999999999996</v>
+        <v>18.407</v>
       </c>
       <c r="L116" s="72">
         <v>33.637</v>
@@ -12176,7 +12176,7 @@
         <v>42.114999999999981</v>
       </c>
       <c r="M117" s="72">
-        <v>9.9289999999999985</v>
+        <v>9.9290000000000003</v>
       </c>
       <c r="N117" s="72">
         <v>167.65199999999999</v>
@@ -12290,7 +12290,7 @@
         <v>70</v>
       </c>
       <c r="K120" s="72">
-        <v>20.656000000000002</v>
+        <v>20.655999999999999</v>
       </c>
       <c r="L120" s="72">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="72">
-        <v>20.656000000000002</v>
+        <v>20.655999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -13594,10 +13594,10 @@
         <v>70</v>
       </c>
       <c r="K151" s="72">
-        <v>153.70799999999997</v>
+        <v>153.708</v>
       </c>
       <c r="L151" s="72">
-        <v>155.60800000000006</v>
+        <v>155.60800000000003</v>
       </c>
       <c r="M151" s="72">
         <v>20.21</v>
@@ -13638,16 +13638,16 @@
         <v>70</v>
       </c>
       <c r="K152" s="72">
-        <v>21.529</v>
+        <v>21.529000000000003</v>
       </c>
       <c r="L152" s="72">
-        <v>264.02900000000005</v>
+        <v>264.029</v>
       </c>
       <c r="M152" s="72">
-        <v>45.286999999999992</v>
+        <v>45.286999999999999</v>
       </c>
       <c r="N152" s="72">
-        <v>285.55800000000005</v>
+        <v>285.55799999999999</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -13688,7 +13688,7 @@
         <v>46.04</v>
       </c>
       <c r="M153" s="72">
-        <v>239.51800000000003</v>
+        <v>239.51799999999997</v>
       </c>
       <c r="N153" s="72">
         <v>101.292</v>
@@ -13726,10 +13726,10 @@
         <v>70</v>
       </c>
       <c r="K154" s="72">
-        <v>110.81299999999999</v>
+        <v>110.81300000000002</v>
       </c>
       <c r="L154" s="72">
-        <v>52.079000000000008</v>
+        <v>52.078999999999979</v>
       </c>
       <c r="M154" s="72">
         <v>49.213000000000001</v>
@@ -13802,7 +13802,7 @@
         <v>70</v>
       </c>
       <c r="K156" s="72">
-        <v>130.26300000000003</v>
+        <v>130.26300000000001</v>
       </c>
       <c r="L156" s="72">
         <v>0</v>
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="N156" s="72">
-        <v>130.26300000000003</v>
+        <v>130.26300000000001</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -15314,7 +15314,7 @@
         <v>70</v>
       </c>
       <c r="K192" s="72">
-        <v>110.74100000000001</v>
+        <v>110.74099999999999</v>
       </c>
       <c r="L192" s="72">
         <v>0</v>
@@ -15323,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="N192" s="72">
-        <v>110.74100000000001</v>
+        <v>110.74099999999999</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -15358,13 +15358,13 @@
         <v>70</v>
       </c>
       <c r="K193" s="72">
-        <v>96.530000000000015</v>
+        <v>96.53</v>
       </c>
       <c r="L193" s="72">
-        <v>63.47499999999998</v>
+        <v>63.474999999999994</v>
       </c>
       <c r="M193" s="72">
-        <v>47.266000000000005</v>
+        <v>47.265999999999998</v>
       </c>
       <c r="N193" s="72">
         <v>160.005</v>
@@ -15405,13 +15405,13 @@
         <v>74.965999999999994</v>
       </c>
       <c r="L194" s="72">
-        <v>54.561000000000021</v>
+        <v>54.560999999999993</v>
       </c>
       <c r="M194" s="72">
-        <v>105.44399999999999</v>
+        <v>105.444</v>
       </c>
       <c r="N194" s="72">
-        <v>129.52700000000002</v>
+        <v>129.52699999999999</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -15446,13 +15446,13 @@
         <v>70</v>
       </c>
       <c r="K195" s="72">
-        <v>12.120999999999999</v>
+        <v>12.121</v>
       </c>
       <c r="L195" s="72">
         <v>106.468</v>
       </c>
       <c r="M195" s="72">
-        <v>23.059000000000001</v>
+        <v>23.058999999999997</v>
       </c>
       <c r="N195" s="72">
         <v>118.589</v>
@@ -15490,13 +15490,13 @@
         <v>70</v>
       </c>
       <c r="K196" s="72">
-        <v>11.679</v>
+        <v>11.679000000000002</v>
       </c>
       <c r="L196" s="72">
         <v>63.262999999999991</v>
       </c>
       <c r="M196" s="72">
-        <v>55.325999999999993</v>
+        <v>55.326000000000008</v>
       </c>
       <c r="N196" s="72">
         <v>74.941999999999993</v>
@@ -16914,13 +16914,13 @@
         <v>70</v>
       </c>
       <c r="K230" s="72">
-        <v>42.738999999999997</v>
+        <v>42.739000000000004</v>
       </c>
       <c r="L230" s="72">
         <v>168.87800000000001</v>
       </c>
       <c r="M230" s="72">
-        <v>15.296000000000001</v>
+        <v>15.295999999999999</v>
       </c>
       <c r="N230" s="72">
         <v>211.61700000000002</v>
@@ -16964,7 +16964,7 @@
         <v>102.16800000000001</v>
       </c>
       <c r="M231" s="72">
-        <v>109.44900000000001</v>
+        <v>109.44899999999998</v>
       </c>
       <c r="N231" s="72">
         <v>151.988</v>
@@ -17008,7 +17008,7 @@
         <v>121.05799999999999</v>
       </c>
       <c r="M232" s="72">
-        <v>30.93</v>
+        <v>30.930000000000003</v>
       </c>
       <c r="N232" s="72">
         <v>198.19399999999999</v>
@@ -18265,13 +18265,13 @@
         <v>2.5909999999999997</v>
       </c>
       <c r="L262" s="72">
-        <v>17.787999999999997</v>
+        <v>17.788</v>
       </c>
       <c r="M262" s="72">
-        <v>15.639000000000003</v>
+        <v>15.638999999999999</v>
       </c>
       <c r="N262" s="72">
-        <v>20.378999999999998</v>
+        <v>20.379000000000001</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
@@ -18309,7 +18309,7 @@
         <v>0</v>
       </c>
       <c r="M263" s="72">
-        <v>20.378999999999998</v>
+        <v>20.379000000000001</v>
       </c>
       <c r="N263" s="72">
         <v>0</v>
@@ -18432,7 +18432,7 @@
         <v>47.116000000000007</v>
       </c>
       <c r="M266" s="72">
-        <v>121.572</v>
+        <v>121.57200000000002</v>
       </c>
       <c r="N266" s="72">
         <v>54.671000000000006</v>
@@ -18476,10 +18476,10 @@
         <v>18.277000000000001</v>
       </c>
       <c r="M267" s="72">
-        <v>36.393999999999991</v>
+        <v>36.394000000000005</v>
       </c>
       <c r="N267" s="72">
-        <v>25.336000000000002</v>
+        <v>25.335999999999999</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
@@ -19894,13 +19894,13 @@
         <v>70</v>
       </c>
       <c r="K301" s="72">
-        <v>70.445999999999998</v>
+        <v>70.446000000000012</v>
       </c>
       <c r="L301" s="72">
-        <v>78.36699999999999</v>
+        <v>78.366999999999976</v>
       </c>
       <c r="M301" s="72">
-        <v>21.000000000000004</v>
+        <v>21</v>
       </c>
       <c r="N301" s="72">
         <v>148.81299999999999</v>
@@ -19944,7 +19944,7 @@
         <v>41.035000000000004</v>
       </c>
       <c r="M302" s="72">
-        <v>107.77799999999999</v>
+        <v>107.77800000000002</v>
       </c>
       <c r="N302" s="72">
         <v>58.655000000000001</v>
@@ -21362,7 +21362,7 @@
         <v>70</v>
       </c>
       <c r="K336" s="72">
-        <v>48.777999999999999</v>
+        <v>48.778000000000006</v>
       </c>
       <c r="L336" s="72">
         <v>0</v>
@@ -21371,7 +21371,7 @@
         <v>0</v>
       </c>
       <c r="N336" s="72">
-        <v>48.777999999999999</v>
+        <v>48.778000000000006</v>
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.25">
@@ -21409,13 +21409,13 @@
         <v>53.799000000000007</v>
       </c>
       <c r="L337" s="72">
-        <v>1.7539999999999978</v>
+        <v>1.7539999999999907</v>
       </c>
       <c r="M337" s="72">
         <v>47.024000000000001</v>
       </c>
       <c r="N337" s="72">
-        <v>55.553000000000004</v>
+        <v>55.552999999999997</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.25">
@@ -21497,13 +21497,13 @@
         <v>31.57</v>
       </c>
       <c r="L339" s="72">
-        <v>63.063000000000009</v>
+        <v>63.062999999999995</v>
       </c>
       <c r="M339" s="72">
-        <v>125.34899999999999</v>
+        <v>125.349</v>
       </c>
       <c r="N339" s="72">
-        <v>94.63300000000001</v>
+        <v>94.632999999999996</v>
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.25">
@@ -22874,7 +22874,7 @@
         <v>70</v>
       </c>
       <c r="K372" s="72">
-        <v>114.88499999999999</v>
+        <v>114.88500000000001</v>
       </c>
       <c r="L372" s="72">
         <v>0</v>
@@ -22883,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="N372" s="72">
-        <v>114.88499999999999</v>
+        <v>114.88500000000001</v>
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.25">
@@ -22918,16 +22918,16 @@
         <v>70</v>
       </c>
       <c r="K373" s="72">
-        <v>93.691999999999993</v>
+        <v>93.692000000000007</v>
       </c>
       <c r="L373" s="72">
-        <v>31.676000000000002</v>
+        <v>31.676000000000016</v>
       </c>
       <c r="M373" s="72">
         <v>83.209000000000003</v>
       </c>
       <c r="N373" s="72">
-        <v>125.36799999999999</v>
+        <v>125.36800000000002</v>
       </c>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.25">
@@ -23056,7 +23056,7 @@
         <v>63.882000000000005</v>
       </c>
       <c r="M376" s="72">
-        <v>29.674999999999997</v>
+        <v>29.675000000000001</v>
       </c>
       <c r="N376" s="72">
         <v>77.418000000000006</v>
@@ -24313,13 +24313,13 @@
         <v>24.136000000000003</v>
       </c>
       <c r="L406" s="72">
-        <v>29.692999999999998</v>
+        <v>29.693000000000005</v>
       </c>
       <c r="M406" s="72">
         <v>158.851</v>
       </c>
       <c r="N406" s="72">
-        <v>53.829000000000001</v>
+        <v>53.829000000000008</v>
       </c>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.25">
@@ -24357,7 +24357,7 @@
         <v>0</v>
       </c>
       <c r="M407" s="72">
-        <v>53.829000000000001</v>
+        <v>53.829000000000008</v>
       </c>
       <c r="N407" s="72">
         <v>0</v>
@@ -24436,7 +24436,7 @@
         <v>28.202000000000012</v>
       </c>
       <c r="M409" s="72">
-        <v>7.0750000000000002</v>
+        <v>7.0749999999999993</v>
       </c>
       <c r="N409" s="72">
         <v>69.336000000000013</v>
@@ -24521,13 +24521,13 @@
         <v>39.388999999999996</v>
       </c>
       <c r="L411" s="72">
-        <v>87.970000000000013</v>
+        <v>87.97</v>
       </c>
       <c r="M411" s="72">
         <v>56.399999999999991</v>
       </c>
       <c r="N411" s="72">
-        <v>127.35900000000001</v>
+        <v>127.35899999999999</v>
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.25">
@@ -25734,16 +25734,16 @@
         <v>70</v>
       </c>
       <c r="K440" s="72">
-        <v>14.862</v>
+        <v>14.862000000000002</v>
       </c>
       <c r="L440" s="72">
-        <v>64.90100000000001</v>
+        <v>64.900999999999982</v>
       </c>
       <c r="M440" s="72">
         <v>28.396999999999998</v>
       </c>
       <c r="N440" s="72">
-        <v>79.763000000000005</v>
+        <v>79.762999999999991</v>
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.25">
@@ -25828,7 +25828,7 @@
         <v>49.51400000000001</v>
       </c>
       <c r="M442" s="72">
-        <v>38.292999999999999</v>
+        <v>38.293000000000006</v>
       </c>
       <c r="N442" s="72">
         <v>59.763000000000005</v>
@@ -25942,13 +25942,13 @@
         <v>70</v>
       </c>
       <c r="K445" s="72">
-        <v>27.603999999999999</v>
+        <v>27.604000000000003</v>
       </c>
       <c r="L445" s="72">
         <v>43.263000000000005</v>
       </c>
       <c r="M445" s="72">
-        <v>55.868000000000009</v>
+        <v>55.867999999999995</v>
       </c>
       <c r="N445" s="72">
         <v>70.867000000000004</v>
@@ -27410,7 +27410,7 @@
         <v>70</v>
       </c>
       <c r="K480" s="72">
-        <v>28.697000000000003</v>
+        <v>28.696999999999999</v>
       </c>
       <c r="L480" s="72">
         <v>0</v>
@@ -27419,7 +27419,7 @@
         <v>0</v>
       </c>
       <c r="N480" s="72">
-        <v>28.697000000000003</v>
+        <v>28.696999999999999</v>
       </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.25">
@@ -27501,13 +27501,13 @@
         <v>14.154</v>
       </c>
       <c r="L482" s="72">
-        <v>33.272999999999996</v>
+        <v>33.27300000000001</v>
       </c>
       <c r="M482" s="72">
         <v>10.849</v>
       </c>
       <c r="N482" s="72">
-        <v>47.426999999999992</v>
+        <v>47.427000000000007</v>
       </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.25">
@@ -27589,13 +27589,13 @@
         <v>28.158000000000001</v>
       </c>
       <c r="L484" s="72">
-        <v>100.79600000000001</v>
+        <v>100.79599999999998</v>
       </c>
       <c r="M484" s="72">
         <v>24.158000000000001</v>
       </c>
       <c r="N484" s="72">
-        <v>128.95400000000001</v>
+        <v>128.95399999999998</v>
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.25">
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="M485" s="72">
-        <v>128.95400000000001</v>
+        <v>128.95399999999998</v>
       </c>
       <c r="N485" s="72">
         <v>0</v>
@@ -28846,10 +28846,10 @@
         <v>70</v>
       </c>
       <c r="K514" s="72">
-        <v>50.747999999999998</v>
+        <v>50.748000000000005</v>
       </c>
       <c r="L514" s="72">
-        <v>53.707000000000015</v>
+        <v>53.707000000000008</v>
       </c>
       <c r="M514" s="72">
         <v>36.337999999999994</v>
@@ -28922,7 +28922,7 @@
         <v>70</v>
       </c>
       <c r="K516" s="72">
-        <v>99.09</v>
+        <v>99.089999999999989</v>
       </c>
       <c r="L516" s="72">
         <v>0</v>
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="N516" s="72">
-        <v>99.09</v>
+        <v>99.089999999999989</v>
       </c>
     </row>
     <row r="517" spans="1:14" x14ac:dyDescent="0.25">
@@ -28966,13 +28966,13 @@
         <v>70</v>
       </c>
       <c r="K517" s="72">
-        <v>81.628000000000014</v>
+        <v>81.628</v>
       </c>
       <c r="L517" s="72">
-        <v>67.176999999999992</v>
+        <v>67.177000000000007</v>
       </c>
       <c r="M517" s="72">
-        <v>31.912999999999997</v>
+        <v>31.913000000000004</v>
       </c>
       <c r="N517" s="72">
         <v>148.80500000000001</v>
@@ -29010,16 +29010,16 @@
         <v>70</v>
       </c>
       <c r="K518" s="72">
-        <v>49.412999999999997</v>
+        <v>49.413000000000004</v>
       </c>
       <c r="L518" s="72">
-        <v>110.32899999999999</v>
+        <v>110.32900000000001</v>
       </c>
       <c r="M518" s="72">
         <v>38.475999999999999</v>
       </c>
       <c r="N518" s="72">
-        <v>159.74199999999999</v>
+        <v>159.74200000000002</v>
       </c>
     </row>
     <row r="519" spans="1:14" x14ac:dyDescent="0.25">
@@ -30434,7 +30434,7 @@
         <v>70</v>
       </c>
       <c r="K552" s="72">
-        <v>87.89</v>
+        <v>87.889999999999986</v>
       </c>
       <c r="L552" s="72">
         <v>0</v>
@@ -30443,7 +30443,7 @@
         <v>0</v>
       </c>
       <c r="N552" s="72">
-        <v>87.89</v>
+        <v>87.889999999999986</v>
       </c>
     </row>
     <row r="553" spans="1:14" x14ac:dyDescent="0.25">
@@ -30478,16 +30478,16 @@
         <v>70</v>
       </c>
       <c r="K553" s="72">
-        <v>26.891000000000002</v>
+        <v>26.890999999999998</v>
       </c>
       <c r="L553" s="72">
-        <v>53.176999999999978</v>
+        <v>53.177000000000014</v>
       </c>
       <c r="M553" s="72">
         <v>34.712999999999994</v>
       </c>
       <c r="N553" s="72">
-        <v>80.067999999999984</v>
+        <v>80.068000000000012</v>
       </c>
     </row>
     <row r="554" spans="1:14" x14ac:dyDescent="0.25">
@@ -30522,16 +30522,16 @@
         <v>70</v>
       </c>
       <c r="K554" s="72">
-        <v>60.495999999999995</v>
+        <v>60.496000000000002</v>
       </c>
       <c r="L554" s="72">
-        <v>60.594000000000008</v>
+        <v>60.593999999999987</v>
       </c>
       <c r="M554" s="72">
-        <v>19.474000000000004</v>
+        <v>19.474</v>
       </c>
       <c r="N554" s="72">
-        <v>121.09</v>
+        <v>121.08999999999999</v>
       </c>
     </row>
     <row r="555" spans="1:14" x14ac:dyDescent="0.25">
@@ -30569,13 +30569,13 @@
         <v>23.504999999999999</v>
       </c>
       <c r="L555" s="72">
-        <v>74.260000000000019</v>
+        <v>74.259999999999991</v>
       </c>
       <c r="M555" s="72">
         <v>46.83</v>
       </c>
       <c r="N555" s="72">
-        <v>97.765000000000015</v>
+        <v>97.764999999999986</v>
       </c>
     </row>
     <row r="556" spans="1:14" x14ac:dyDescent="0.25">
@@ -30610,16 +30610,16 @@
         <v>70</v>
       </c>
       <c r="K556" s="72">
-        <v>47.738999999999997</v>
+        <v>47.739000000000004</v>
       </c>
       <c r="L556" s="72">
-        <v>42.086000000000006</v>
+        <v>42.085999999999984</v>
       </c>
       <c r="M556" s="72">
-        <v>55.679000000000002</v>
+        <v>55.678999999999995</v>
       </c>
       <c r="N556" s="72">
-        <v>89.825000000000003</v>
+        <v>89.824999999999989</v>
       </c>
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.25">
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="M557" s="72">
-        <v>89.825000000000003</v>
+        <v>89.824999999999989</v>
       </c>
       <c r="N557" s="72">
         <v>0</v>
@@ -32034,10 +32034,10 @@
         <v>70</v>
       </c>
       <c r="K590" s="72">
-        <v>69.171000000000006</v>
+        <v>69.170999999999992</v>
       </c>
       <c r="L590" s="72">
-        <v>43.059999999999988</v>
+        <v>43.06</v>
       </c>
       <c r="M590" s="72">
         <v>12.388999999999999</v>
@@ -32078,13 +32078,13 @@
         <v>70</v>
       </c>
       <c r="K591" s="72">
-        <v>50.384999999999991</v>
+        <v>50.385000000000005</v>
       </c>
       <c r="L591" s="72">
-        <v>59.187000000000012</v>
+        <v>59.186999999999998</v>
       </c>
       <c r="M591" s="72">
-        <v>53.044000000000004</v>
+        <v>53.043999999999997</v>
       </c>
       <c r="N591" s="72">
         <v>109.572</v>
@@ -32125,13 +32125,13 @@
         <v>39.418999999999997</v>
       </c>
       <c r="L592" s="72">
-        <v>27.613000000000014</v>
+        <v>27.612999999999985</v>
       </c>
       <c r="M592" s="72">
         <v>81.959000000000003</v>
       </c>
       <c r="N592" s="72">
-        <v>67.032000000000011</v>
+        <v>67.031999999999982</v>
       </c>
     </row>
     <row r="593" spans="1:14" x14ac:dyDescent="0.25">
@@ -32169,7 +32169,7 @@
         <v>0</v>
       </c>
       <c r="M593" s="72">
-        <v>67.032000000000011</v>
+        <v>67.031999999999982</v>
       </c>
       <c r="N593" s="72">
         <v>0</v>
@@ -33458,7 +33458,7 @@
         <v>70</v>
       </c>
       <c r="K624" s="72">
-        <v>36.521000000000001</v>
+        <v>36.521000000000008</v>
       </c>
       <c r="L624" s="72">
         <v>0</v>
@@ -33467,7 +33467,7 @@
         <v>0</v>
       </c>
       <c r="N624" s="72">
-        <v>36.521000000000001</v>
+        <v>36.521000000000008</v>
       </c>
     </row>
     <row r="625" spans="1:14" x14ac:dyDescent="0.25">
@@ -33505,13 +33505,13 @@
         <v>68.602000000000004</v>
       </c>
       <c r="L625" s="72">
-        <v>34.015000000000001</v>
+        <v>34.014999999999986</v>
       </c>
       <c r="M625" s="72">
         <v>2.5060000000000002</v>
       </c>
       <c r="N625" s="72">
-        <v>102.617</v>
+        <v>102.61699999999999</v>
       </c>
     </row>
     <row r="626" spans="1:14" x14ac:dyDescent="0.25">
@@ -33549,13 +33549,13 @@
         <v>131.72699999999998</v>
       </c>
       <c r="L626" s="72">
-        <v>62.669000000000011</v>
+        <v>62.66900000000004</v>
       </c>
       <c r="M626" s="72">
-        <v>39.948000000000008</v>
+        <v>39.947999999999993</v>
       </c>
       <c r="N626" s="72">
-        <v>194.39599999999999</v>
+        <v>194.39600000000002</v>
       </c>
     </row>
     <row r="627" spans="1:14" x14ac:dyDescent="0.25">
@@ -33640,7 +33640,7 @@
         <v>112.869</v>
       </c>
       <c r="M628" s="72">
-        <v>78.436999999999983</v>
+        <v>78.436999999999998</v>
       </c>
       <c r="N628" s="72">
         <v>131.447</v>
@@ -34853,13 +34853,13 @@
         <v>21</v>
       </c>
       <c r="L657" s="72">
-        <v>221.06499999999997</v>
+        <v>221.065</v>
       </c>
       <c r="M657" s="72">
         <v>10.247999999999999</v>
       </c>
       <c r="N657" s="72">
-        <v>242.06499999999997</v>
+        <v>242.065</v>
       </c>
     </row>
     <row r="658" spans="1:14" x14ac:dyDescent="0.25">
@@ -34970,7 +34970,7 @@
         <v>70</v>
       </c>
       <c r="K660" s="72">
-        <v>239.79499999999996</v>
+        <v>239.79500000000002</v>
       </c>
       <c r="L660" s="72">
         <v>0</v>
@@ -34979,7 +34979,7 @@
         <v>0</v>
       </c>
       <c r="N660" s="72">
-        <v>239.79499999999996</v>
+        <v>239.79500000000002</v>
       </c>
     </row>
     <row r="661" spans="1:14" x14ac:dyDescent="0.25">
@@ -36526,16 +36526,16 @@
         <v>70</v>
       </c>
       <c r="K697" s="72">
-        <v>81.974000000000018</v>
+        <v>81.97399999999999</v>
       </c>
       <c r="L697" s="72">
-        <v>21.026999999999987</v>
+        <v>21.027000000000001</v>
       </c>
       <c r="M697" s="72">
         <v>86.248000000000005</v>
       </c>
       <c r="N697" s="72">
-        <v>103.001</v>
+        <v>103.00099999999999</v>
       </c>
     </row>
     <row r="698" spans="1:14" x14ac:dyDescent="0.25">
@@ -36573,13 +36573,13 @@
         <v>3.3920000000000003</v>
       </c>
       <c r="L698" s="72">
-        <v>85.402000000000015</v>
+        <v>85.402000000000001</v>
       </c>
       <c r="M698" s="72">
-        <v>17.599</v>
+        <v>17.598999999999997</v>
       </c>
       <c r="N698" s="72">
-        <v>88.794000000000011</v>
+        <v>88.793999999999997</v>
       </c>
     </row>
     <row r="699" spans="1:14" x14ac:dyDescent="0.25">
@@ -36664,7 +36664,7 @@
         <v>52.381999999999998</v>
       </c>
       <c r="M700" s="72">
-        <v>27.190999999999999</v>
+        <v>27.191000000000003</v>
       </c>
       <c r="N700" s="72">
         <v>57.177</v>
@@ -37994,7 +37994,7 @@
         <v>70</v>
       </c>
       <c r="K732" s="72">
-        <v>143.94800000000001</v>
+        <v>143.94799999999998</v>
       </c>
       <c r="L732" s="72">
         <v>0</v>
@@ -38003,7 +38003,7 @@
         <v>0</v>
       </c>
       <c r="N732" s="72">
-        <v>143.94800000000001</v>
+        <v>143.94799999999998</v>
       </c>
     </row>
     <row r="733" spans="1:14" x14ac:dyDescent="0.25">
@@ -38179,7 +38179,7 @@
         <v>100.685</v>
       </c>
       <c r="N736" s="72">
-        <v>47.278000000000006</v>
+        <v>47.277999999999999</v>
       </c>
     </row>
     <row r="737" spans="1:14" x14ac:dyDescent="0.25">
@@ -38217,7 +38217,7 @@
         <v>0</v>
       </c>
       <c r="M737" s="72">
-        <v>47.278000000000006</v>
+        <v>47.277999999999999</v>
       </c>
       <c r="N737" s="72">
         <v>0</v>
@@ -39342,16 +39342,16 @@
         <v>70</v>
       </c>
       <c r="K764" s="72">
-        <v>197.63000000000002</v>
+        <v>197.63000000000005</v>
       </c>
       <c r="L764" s="72">
-        <v>199.54499999999999</v>
+        <v>199.54500000000002</v>
       </c>
       <c r="M764" s="72">
-        <v>47.394000000000005</v>
+        <v>47.393999999999998</v>
       </c>
       <c r="N764" s="72">
-        <v>397.17500000000001</v>
+        <v>397.17500000000007</v>
       </c>
     </row>
     <row r="765" spans="1:14" x14ac:dyDescent="0.25">
@@ -39436,7 +39436,7 @@
         <v>25.390999999999991</v>
       </c>
       <c r="M766" s="72">
-        <v>44.49</v>
+        <v>44.489999999999995</v>
       </c>
       <c r="N766" s="72">
         <v>62.926999999999992</v>
@@ -39506,7 +39506,7 @@
         <v>70</v>
       </c>
       <c r="K768" s="72">
-        <v>134.99600000000004</v>
+        <v>134.99599999999998</v>
       </c>
       <c r="L768" s="72">
         <v>0</v>
@@ -39515,7 +39515,7 @@
         <v>0</v>
       </c>
       <c r="N768" s="72">
-        <v>134.99600000000004</v>
+        <v>134.99599999999998</v>
       </c>
     </row>
     <row r="769" spans="1:14" x14ac:dyDescent="0.25">
@@ -39553,13 +39553,13 @@
         <v>66.614000000000004</v>
       </c>
       <c r="L769" s="72">
-        <v>94.925999999999988</v>
+        <v>94.926000000000016</v>
       </c>
       <c r="M769" s="72">
-        <v>40.069999999999993</v>
+        <v>40.070000000000007</v>
       </c>
       <c r="N769" s="72">
-        <v>161.54</v>
+        <v>161.54000000000002</v>
       </c>
     </row>
     <row r="770" spans="1:14" x14ac:dyDescent="0.25">
@@ -41106,16 +41106,16 @@
         <v>70</v>
       </c>
       <c r="K806" s="72">
-        <v>85.631</v>
+        <v>85.630999999999986</v>
       </c>
       <c r="L806" s="72">
-        <v>40.614999999999981</v>
+        <v>40.615000000000009</v>
       </c>
       <c r="M806" s="72">
         <v>3.4039999999999999</v>
       </c>
       <c r="N806" s="72">
-        <v>126.24599999999998</v>
+        <v>126.246</v>
       </c>
     </row>
     <row r="807" spans="1:14" x14ac:dyDescent="0.25">
@@ -42574,16 +42574,16 @@
         <v>70</v>
       </c>
       <c r="K841" s="72">
-        <v>86.518000000000001</v>
+        <v>86.518000000000015</v>
       </c>
       <c r="L841" s="72">
-        <v>115.78700000000003</v>
+        <v>115.78699999999999</v>
       </c>
       <c r="M841" s="72">
-        <v>59.335999999999999</v>
+        <v>59.336000000000006</v>
       </c>
       <c r="N841" s="72">
-        <v>202.30500000000004</v>
+        <v>202.30500000000001</v>
       </c>
     </row>
     <row r="842" spans="1:14" x14ac:dyDescent="0.25">
@@ -42618,10 +42618,10 @@
         <v>70</v>
       </c>
       <c r="K842" s="72">
-        <v>63.878000000000007</v>
+        <v>63.878</v>
       </c>
       <c r="L842" s="72">
-        <v>180.27399999999997</v>
+        <v>180.274</v>
       </c>
       <c r="M842" s="72">
         <v>22.031000000000002</v>
@@ -42668,7 +42668,7 @@
         <v>157.821</v>
       </c>
       <c r="M843" s="72">
-        <v>86.331000000000003</v>
+        <v>86.330999999999989</v>
       </c>
       <c r="N843" s="72">
         <v>213.517</v>
@@ -42709,13 +42709,13 @@
         <v>17.225000000000001</v>
       </c>
       <c r="L844" s="72">
-        <v>21.047000000000004</v>
+        <v>21.046999999999997</v>
       </c>
       <c r="M844" s="72">
-        <v>192.47000000000003</v>
+        <v>192.47</v>
       </c>
       <c r="N844" s="72">
-        <v>38.272000000000006</v>
+        <v>38.271999999999998</v>
       </c>
     </row>
     <row r="845" spans="1:14" x14ac:dyDescent="0.25">
@@ -42753,7 +42753,7 @@
         <v>0</v>
       </c>
       <c r="M845" s="72">
-        <v>38.272000000000006</v>
+        <v>38.271999999999998</v>
       </c>
       <c r="N845" s="72">
         <v>0</v>
@@ -43837,13 +43837,13 @@
         <v>208.46300000000002</v>
       </c>
       <c r="L871" s="72">
-        <v>9.0379999999999541</v>
+        <v>9.0380000000000109</v>
       </c>
       <c r="M871" s="72">
         <v>0</v>
       </c>
       <c r="N871" s="72">
-        <v>217.50099999999998</v>
+        <v>217.50100000000003</v>
       </c>
     </row>
     <row r="872" spans="1:14" x14ac:dyDescent="0.25">
@@ -43881,13 +43881,13 @@
         <v>65.858000000000004</v>
       </c>
       <c r="L872" s="72">
-        <v>194.19799999999998</v>
+        <v>194.19800000000004</v>
       </c>
       <c r="M872" s="72">
-        <v>23.302999999999997</v>
+        <v>23.303000000000001</v>
       </c>
       <c r="N872" s="72">
-        <v>260.05599999999998</v>
+        <v>260.05600000000004</v>
       </c>
     </row>
     <row r="873" spans="1:14" x14ac:dyDescent="0.25">
@@ -43925,13 +43925,13 @@
         <v>10.443999999999999</v>
       </c>
       <c r="L873" s="72">
-        <v>73.554000000000002</v>
+        <v>73.553999999999988</v>
       </c>
       <c r="M873" s="72">
-        <v>186.50200000000001</v>
+        <v>186.50200000000004</v>
       </c>
       <c r="N873" s="72">
-        <v>83.998000000000005</v>
+        <v>83.99799999999999</v>
       </c>
     </row>
     <row r="874" spans="1:14" x14ac:dyDescent="0.25">
@@ -45396,7 +45396,7 @@
         <v>57.715000000000003</v>
       </c>
       <c r="M908" s="72">
-        <v>127.515</v>
+        <v>127.51500000000001</v>
       </c>
       <c r="N908" s="72">
         <v>91.68</v>
@@ -45434,16 +45434,16 @@
         <v>70</v>
       </c>
       <c r="K909" s="72">
-        <v>33.171999999999997</v>
+        <v>33.172000000000004</v>
       </c>
       <c r="L909" s="72">
-        <v>60.293000000000021</v>
+        <v>60.292999999999999</v>
       </c>
       <c r="M909" s="72">
         <v>31.387</v>
       </c>
       <c r="N909" s="72">
-        <v>93.465000000000018</v>
+        <v>93.465000000000003</v>
       </c>
     </row>
     <row r="910" spans="1:14" x14ac:dyDescent="0.25">
@@ -49565,13 +49565,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>257.50799999999992</v>
+        <v>257.50799999999998</v>
       </c>
       <c r="H6" s="72">
         <v>210</v>
       </c>
       <c r="I6" s="76">
-        <v>1.226228571428571</v>
+        <v>1.2262285714285714</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -49594,13 +49594,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>54.490000000000016</v>
+        <v>54.49</v>
       </c>
       <c r="H7" s="72">
         <v>210</v>
       </c>
       <c r="I7" s="76">
-        <v>0.25947619047619053</v>
+        <v>0.25947619047619047</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -49623,13 +49623,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="72">
-        <v>25.551000000000002</v>
+        <v>25.551000000000009</v>
       </c>
       <c r="H8" s="72">
         <v>70</v>
       </c>
       <c r="I8" s="76">
-        <v>0.36501428571428574</v>
+        <v>0.36501428571428585</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -49652,13 +49652,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="72">
-        <v>17.360000000000007</v>
+        <v>17.36</v>
       </c>
       <c r="H9" s="72">
         <v>70</v>
       </c>
       <c r="I9" s="76">
-        <v>0.24800000000000008</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -49681,13 +49681,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>81.277999999999992</v>
+        <v>81.278000000000048</v>
       </c>
       <c r="H10" s="72">
         <v>140</v>
       </c>
       <c r="I10" s="76">
-        <v>0.58055714285714277</v>
+        <v>0.58055714285714322</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -49710,13 +49710,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>60.145999999999979</v>
+        <v>60.145999999999987</v>
       </c>
       <c r="H11" s="72">
         <v>140</v>
       </c>
       <c r="I11" s="76">
-        <v>0.42961428571428556</v>
+        <v>0.42961428571428562</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -49768,13 +49768,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="72">
-        <v>72.231999999999999</v>
+        <v>72.231999999999985</v>
       </c>
       <c r="H13" s="72">
         <v>210</v>
       </c>
       <c r="I13" s="76">
-        <v>0.34396190476190475</v>
+        <v>0.34396190476190469</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -49797,13 +49797,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>56.186999999999991</v>
+        <v>56.186999999999976</v>
       </c>
       <c r="H14" s="72">
         <v>70</v>
       </c>
       <c r="I14" s="76">
-        <v>0.80267142857142848</v>
+        <v>0.80267142857142826</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -49826,13 +49826,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>51.367749999999987</v>
+        <v>51.36774999999998</v>
       </c>
       <c r="H15" s="72">
         <v>70</v>
       </c>
       <c r="I15" s="76">
-        <v>0.73382499999999984</v>
+        <v>0.73382499999999973</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -49855,13 +49855,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>56.382750000000016</v>
+        <v>56.382750000000001</v>
       </c>
       <c r="H16" s="72">
         <v>70</v>
       </c>
       <c r="I16" s="76">
-        <v>0.8054678571428574</v>
+        <v>0.80546785714285718</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -49884,13 +49884,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>20.22925</v>
+        <v>20.229249999999993</v>
       </c>
       <c r="H17" s="72">
         <v>70</v>
       </c>
       <c r="I17" s="76">
-        <v>0.28898928571428573</v>
+        <v>0.28898928571428562</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -49913,13 +49913,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.900000000000006</v>
+        <v>40.899999999999991</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
       </c>
       <c r="I18" s="76">
-        <v>0.58428571428571441</v>
+        <v>0.58428571428571419</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -49942,13 +49942,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.377999999999993</v>
+        <v>50.378000000000021</v>
       </c>
       <c r="H19" s="72">
         <v>70</v>
       </c>
       <c r="I19" s="76">
-        <v>0.71968571428571415</v>
+        <v>0.7196857142857146</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -49971,13 +49971,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="72">
-        <v>74.97675000000001</v>
+        <v>74.976750000000024</v>
       </c>
       <c r="H20" s="72">
         <v>70</v>
       </c>
       <c r="I20" s="76">
-        <v>1.0710964285714286</v>
+        <v>1.0710964285714288</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -50000,13 +50000,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="72">
-        <v>47.940499999999993</v>
+        <v>47.9405</v>
       </c>
       <c r="H21" s="72">
         <v>70</v>
       </c>
       <c r="I21" s="76">
-        <v>0.68486428571428559</v>
+        <v>0.6848642857142857</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -50087,13 +50087,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>54.02225</v>
+        <v>54.022250000000007</v>
       </c>
       <c r="H24" s="72">
         <v>70</v>
       </c>
       <c r="I24" s="76">
-        <v>0.77174642857142861</v>
+        <v>0.77174642857142872</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -50116,13 +50116,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>30.680000000000003</v>
+        <v>30.679999999999996</v>
       </c>
       <c r="H25" s="72">
         <v>70</v>
       </c>
       <c r="I25" s="76">
-        <v>0.43828571428571433</v>
+        <v>0.43828571428571422</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -50145,13 +50145,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="72">
-        <v>18.188749999999999</v>
+        <v>18.188749999999995</v>
       </c>
       <c r="H26" s="72">
         <v>70</v>
       </c>
       <c r="I26" s="76">
-        <v>0.25983928571428572</v>
+        <v>0.25983928571428566</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -50203,13 +50203,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>143.79349999999997</v>
+        <v>143.79350000000002</v>
       </c>
       <c r="H28" s="72">
         <v>140</v>
       </c>
       <c r="I28" s="76">
-        <v>1.0270964285714284</v>
+        <v>1.0270964285714288</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -50261,13 +50261,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>270.00849999999997</v>
+        <v>270.00850000000008</v>
       </c>
       <c r="H30" s="72">
         <v>280</v>
       </c>
       <c r="I30" s="76">
-        <v>0.96431607142857134</v>
+        <v>0.96431607142857168</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -50290,13 +50290,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>98.200750000000014</v>
+        <v>98.200749999999999</v>
       </c>
       <c r="H31" s="72">
         <v>280</v>
       </c>
       <c r="I31" s="76">
-        <v>0.35071696428571436</v>
+        <v>0.35071696428571431</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -50319,13 +50319,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>66.73899999999999</v>
+        <v>66.739000000000019</v>
       </c>
       <c r="H32" s="72">
         <v>140</v>
       </c>
       <c r="I32" s="76">
-        <v>0.47670714285714277</v>
+        <v>0.476707142857143</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -50348,13 +50348,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>81.523250000000004</v>
+        <v>81.52324999999999</v>
       </c>
       <c r="H33" s="72">
         <v>140</v>
       </c>
       <c r="I33" s="76">
-        <v>0.58230892857142857</v>
+        <v>0.58230892857142846</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -50377,13 +50377,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>279.31024999999988</v>
+        <v>279.31024999999994</v>
       </c>
       <c r="H34" s="72">
         <v>210</v>
       </c>
       <c r="I34" s="76">
-        <v>1.330048809523809</v>
+        <v>1.3300488095238092</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -50406,13 +50406,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>99.021500000000032</v>
+        <v>99.021500000000003</v>
       </c>
       <c r="H35" s="72">
         <v>210</v>
       </c>
       <c r="I35" s="76">
-        <v>0.47153095238095255</v>
+        <v>0.47153095238095238</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -50435,13 +50435,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>66.191249999999982</v>
+        <v>66.191250000000039</v>
       </c>
       <c r="H36" s="72">
         <v>70</v>
       </c>
       <c r="I36" s="76">
-        <v>0.94558928571428547</v>
+        <v>0.94558928571428624</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -50464,13 +50464,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>74.405500000000004</v>
+        <v>74.405500000000018</v>
       </c>
       <c r="H37" s="72">
         <v>70</v>
       </c>
       <c r="I37" s="76">
-        <v>1.0629357142857143</v>
+        <v>1.0629357142857145</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -50493,13 +50493,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="72">
-        <v>156.43200000000007</v>
+        <v>156.43199999999999</v>
       </c>
       <c r="H38" s="72">
         <v>140</v>
       </c>
       <c r="I38" s="76">
-        <v>1.1173714285714291</v>
+        <v>1.1173714285714285</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -50522,13 +50522,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="72">
-        <v>97.248249999999999</v>
+        <v>97.24824999999997</v>
       </c>
       <c r="H39" s="72">
         <v>140</v>
       </c>
       <c r="I39" s="76">
-        <v>0.69463035714285715</v>
+        <v>0.69463035714285692</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -50551,13 +50551,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="72">
-        <v>42.847749999999998</v>
+        <v>42.847749999999991</v>
       </c>
       <c r="H40" s="72">
         <v>70</v>
       </c>
       <c r="I40" s="76">
-        <v>0.61211071428571429</v>
+        <v>0.61211071428571417</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -50580,13 +50580,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="72">
-        <v>35.624750000000006</v>
+        <v>35.624749999999992</v>
       </c>
       <c r="H41" s="72">
         <v>70</v>
       </c>
       <c r="I41" s="76">
-        <v>0.50892500000000007</v>
+        <v>0.50892499999999985</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -50609,13 +50609,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>122.98824999999999</v>
+        <v>122.98825000000001</v>
       </c>
       <c r="H42" s="72">
         <v>140</v>
       </c>
       <c r="I42" s="76">
-        <v>0.87848749999999998</v>
+        <v>0.87848750000000009</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -50638,13 +50638,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>59.180249999999994</v>
+        <v>59.180250000000001</v>
       </c>
       <c r="H43" s="72">
         <v>140</v>
       </c>
       <c r="I43" s="76">
-        <v>0.42271607142857137</v>
+        <v>0.42271607142857143</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -50667,13 +50667,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="72">
-        <v>30.801250000000003</v>
+        <v>30.801249999999996</v>
       </c>
       <c r="H44" s="72">
         <v>70</v>
       </c>
       <c r="I44" s="76">
-        <v>0.44001785714285718</v>
+        <v>0.44001785714285707</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -50696,13 +50696,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="72">
-        <v>66.328999999999994</v>
+        <v>66.329000000000008</v>
       </c>
       <c r="H45" s="72">
         <v>70</v>
       </c>
       <c r="I45" s="76">
-        <v>0.94755714285714276</v>
+        <v>0.94755714285714299</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -50725,13 +50725,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>411.89875000000006</v>
+        <v>411.89874999999989</v>
       </c>
       <c r="H46" s="72">
         <v>350</v>
       </c>
       <c r="I46" s="76">
-        <v>1.1768535714285717</v>
+        <v>1.1768535714285711</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -50754,13 +50754,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>180.19400000000005</v>
+        <v>180.19399999999999</v>
       </c>
       <c r="H47" s="72">
         <v>350</v>
       </c>
       <c r="I47" s="76">
-        <v>0.51484000000000008</v>
+        <v>0.51483999999999996</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -50783,13 +50783,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="72">
-        <v>100.51024999999998</v>
+        <v>100.51025</v>
       </c>
       <c r="H48" s="72">
         <v>140</v>
       </c>
       <c r="I48" s="76">
-        <v>0.71793035714285702</v>
+        <v>0.71793035714285713</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -50841,13 +50841,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>176.98624999999998</v>
+        <v>176.98624999999996</v>
       </c>
       <c r="H50" s="72">
         <v>210</v>
       </c>
       <c r="I50" s="76">
-        <v>0.84279166666666661</v>
+        <v>0.84279166666666649</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -50870,13 +50870,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>312.93350000000004</v>
+        <v>312.93349999999981</v>
       </c>
       <c r="H51" s="72">
         <v>210</v>
       </c>
       <c r="I51" s="76">
-        <v>1.490159523809524</v>
+        <v>1.4901595238095229</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -50899,13 +50899,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>174.17675</v>
+        <v>174.17674999999997</v>
       </c>
       <c r="H52" s="72">
         <v>210</v>
       </c>
       <c r="I52" s="76">
-        <v>0.82941309523809525</v>
+        <v>0.82941309523809514</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -50957,13 +50957,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>41.385000000000005</v>
+        <v>41.384999999999998</v>
       </c>
       <c r="H54" s="72">
         <v>70</v>
       </c>
       <c r="I54" s="76">
-        <v>0.5912142857142858</v>
+        <v>0.59121428571428569</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -51102,13 +51102,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="72">
-        <v>18.089000000000002</v>
+        <v>18.088999999999999</v>
       </c>
       <c r="H59" s="72">
         <v>70</v>
       </c>
       <c r="I59" s="76">
-        <v>0.25841428571428576</v>
+        <v>0.25841428571428571</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -51189,7 +51189,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="72">
-        <v>18.425749999999997</v>
+        <v>18.425750000000001</v>
       </c>
       <c r="H62" s="72">
         <v>70</v>
@@ -51363,13 +51363,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>140.32299999999998</v>
+        <v>140.32300000000004</v>
       </c>
       <c r="H68" s="72">
         <v>140</v>
       </c>
       <c r="I68" s="76">
-        <v>1.0023071428571426</v>
+        <v>1.0023071428571431</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -51450,13 +51450,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>54.6325</v>
+        <v>54.632499999999993</v>
       </c>
       <c r="H71" s="72">
         <v>70</v>
       </c>
       <c r="I71" s="76">
-        <v>0.78046428571428572</v>
+        <v>0.78046428571428561</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -51479,13 +51479,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>116.71624999999999</v>
+        <v>116.71625000000003</v>
       </c>
       <c r="H72" s="72">
         <v>70</v>
       </c>
       <c r="I72" s="76">
-        <v>1.6673749999999998</v>
+        <v>1.6673750000000005</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -51508,13 +51508,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>64.614750000000001</v>
+        <v>64.614749999999987</v>
       </c>
       <c r="H73" s="72">
         <v>70</v>
       </c>
       <c r="I73" s="76">
-        <v>0.92306785714285711</v>
+        <v>0.923067857142857</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -51537,13 +51537,13 @@
         <v>0</v>
       </c>
       <c r="G74" s="72">
-        <v>22.291750000000008</v>
+        <v>22.29175</v>
       </c>
       <c r="H74" s="72">
         <v>70</v>
       </c>
       <c r="I74" s="76">
-        <v>0.31845357142857156</v>
+        <v>0.31845357142857145</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -51595,13 +51595,13 @@
         <v>0</v>
       </c>
       <c r="G76" s="72">
-        <v>104.06350000000002</v>
+        <v>104.0635</v>
       </c>
       <c r="H76" s="72">
         <v>70</v>
       </c>
       <c r="I76" s="76">
-        <v>1.4866214285714288</v>
+        <v>1.4866214285714285</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -51624,13 +51624,13 @@
         <v>0</v>
       </c>
       <c r="G77" s="72">
-        <v>22.266249999999999</v>
+        <v>22.266249999999996</v>
       </c>
       <c r="H77" s="72">
         <v>70</v>
       </c>
       <c r="I77" s="76">
-        <v>0.31808928571428569</v>
+        <v>0.31808928571428563</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -51653,13 +51653,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>52.302000000000007</v>
+        <v>52.302000000000021</v>
       </c>
       <c r="H78" s="72">
         <v>70</v>
       </c>
       <c r="I78" s="76">
-        <v>0.74717142857142871</v>
+        <v>0.74717142857142882</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -51682,13 +51682,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>48.524749999999997</v>
+        <v>48.524750000000004</v>
       </c>
       <c r="H79" s="72">
         <v>70</v>
       </c>
       <c r="I79" s="76">
-        <v>0.69321071428571424</v>
+        <v>0.69321071428571435</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -51711,13 +51711,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>99.342999999999975</v>
+        <v>99.342999999999989</v>
       </c>
       <c r="H80" s="72">
         <v>70</v>
       </c>
       <c r="I80" s="76">
-        <v>1.4191857142857138</v>
+        <v>1.4191857142857141</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -51740,13 +51740,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>49.307749999999999</v>
+        <v>49.30775000000002</v>
       </c>
       <c r="H81" s="72">
         <v>70</v>
       </c>
       <c r="I81" s="76">
-        <v>0.70439642857142859</v>
+        <v>0.70439642857142881</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -51769,13 +51769,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>97.642749999999964</v>
+        <v>97.642749999999978</v>
       </c>
       <c r="H82" s="72">
         <v>70</v>
       </c>
       <c r="I82" s="76">
-        <v>1.394896428571428</v>
+        <v>1.3948964285714283</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -51827,13 +51827,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>79.682500000000005</v>
+        <v>79.68249999999999</v>
       </c>
       <c r="H84" s="72">
         <v>140</v>
       </c>
       <c r="I84" s="76">
-        <v>0.56916071428571435</v>
+        <v>0.56916071428571424</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -51856,13 +51856,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>33.780499999999996</v>
+        <v>33.780499999999989</v>
       </c>
       <c r="H85" s="72">
         <v>140</v>
       </c>
       <c r="I85" s="76">
-        <v>0.24128928571428568</v>
+        <v>0.24128928571428565</v>
       </c>
     </row>
   </sheetData>
